--- a/data/ExtendedNuclearData.xlsx
+++ b/data/ExtendedNuclearData.xlsx
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3593.86</v>
+        <v>2966897.67</v>
       </c>
     </row>
     <row r="3">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113509.8</v>
+        <v>7487343.55</v>
       </c>
     </row>
     <row r="4">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56765.09</v>
+        <v>4287940.92</v>
       </c>
     </row>
     <row r="5">
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>60691.51</v>
+        <v>4420524.16</v>
       </c>
     </row>
     <row r="6">
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158156.23</v>
+        <v>9174155.050000001</v>
       </c>
     </row>
     <row r="7">
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>131517.92</v>
+        <v>7810855.59</v>
       </c>
     </row>
     <row r="8">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62968.4</v>
+        <v>5542763.59</v>
       </c>
     </row>
     <row r="9">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>191168.44</v>
+        <v>9988523.77</v>
       </c>
     </row>
     <row r="10">
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188343.11</v>
+        <v>9347163.43</v>
       </c>
     </row>
     <row r="11">
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101603.05</v>
+        <v>6937129.63</v>
       </c>
     </row>
     <row r="12">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24589.84</v>
+        <v>3453331.42</v>
       </c>
     </row>
     <row r="13">
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>176387.14</v>
+        <v>9708371.74</v>
       </c>
     </row>
     <row r="14">
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>175037.23</v>
+        <v>9794167.73</v>
       </c>
     </row>
     <row r="15">
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>70112.49000000001</v>
+        <v>5275887.68</v>
       </c>
     </row>
     <row r="16">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>75755.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3593.86</v>
+        <v>2966897.67</v>
       </c>
     </row>
     <row r="18">
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>113509.8</v>
+        <v>7487343.55</v>
       </c>
     </row>
     <row r="19">
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>184525.23</v>
+        <v>10154382.78</v>
       </c>
     </row>
     <row r="20">
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>153736.18</v>
+        <v>8568771.73</v>
       </c>
     </row>
     <row r="21">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>158904.08</v>
+        <v>9358021.16</v>
       </c>
     </row>
     <row r="22">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49170.87</v>
+        <v>4266135.95</v>
       </c>
     </row>
     <row r="23">
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>79822.82000000001</v>
+        <v>6105078.27</v>
       </c>
     </row>
     <row r="24">
@@ -1008,7 +1008,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>23552.17</v>
+        <v>2220205.35</v>
       </c>
     </row>
     <row r="25">
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>23557.21</v>
+        <v>3535339.47</v>
       </c>
     </row>
     <row r="26">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93685.85000000001</v>
+        <v>6183587.84</v>
       </c>
     </row>
     <row r="27">
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>188505.48</v>
+        <v>10027909.72</v>
       </c>
     </row>
     <row r="28">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>75755.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>113509.8</v>
+        <v>7487343.55</v>
       </c>
     </row>
   </sheetData>
@@ -1499,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>116066.53</v>
+        <v>4642661</v>
       </c>
     </row>
     <row r="4">
@@ -1517,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>60305.08</v>
+        <v>2412203.19</v>
       </c>
     </row>
     <row r="5">
@@ -1535,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>64237.01</v>
+        <v>2569480.43</v>
       </c>
     </row>
     <row r="6">
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>158393.31</v>
+        <v>6335732.26</v>
       </c>
     </row>
     <row r="7">
@@ -1571,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>130732.83</v>
+        <v>5229313.04</v>
       </c>
     </row>
     <row r="8">
@@ -1589,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>64396.65</v>
+        <v>2575865.92</v>
       </c>
     </row>
     <row r="9">
@@ -1607,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>190043.33</v>
+        <v>7601733.23</v>
       </c>
     </row>
     <row r="10">
@@ -1625,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>186324.38</v>
+        <v>7452975.17</v>
       </c>
     </row>
     <row r="11">
@@ -1643,7 +1643,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>104450.44</v>
+        <v>4178017.49</v>
       </c>
     </row>
     <row r="12">
@@ -1661,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>28135.8</v>
+        <v>1125431.99</v>
       </c>
     </row>
     <row r="13">
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>175984.8</v>
+        <v>7039392.17</v>
       </c>
     </row>
     <row r="14">
@@ -1697,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>175081.47</v>
+        <v>7003258.85</v>
       </c>
     </row>
     <row r="15">
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>73631.03999999999</v>
+        <v>2945241.64</v>
       </c>
     </row>
     <row r="16">
@@ -1733,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>74172.44</v>
+        <v>2966897.67</v>
       </c>
     </row>
     <row r="17">
@@ -1769,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>116066.53</v>
+        <v>4642661</v>
       </c>
     </row>
     <row r="19">
@@ -1787,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>184512.75</v>
+        <v>7380509.87</v>
       </c>
     </row>
     <row r="20">
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>152695.82</v>
+        <v>6107832.81</v>
       </c>
     </row>
     <row r="21">
@@ -1823,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>160041.19</v>
+        <v>6401647.58</v>
       </c>
     </row>
     <row r="22">
@@ -1841,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>52763.16</v>
+        <v>2110526.3</v>
       </c>
     </row>
     <row r="23">
@@ -1859,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>80215.91</v>
+        <v>3208636.2</v>
       </c>
     </row>
     <row r="24">
@@ -1877,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>23727.91</v>
+        <v>949116.25</v>
       </c>
     </row>
     <row r="25">
@@ -1895,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>21560.32</v>
+        <v>862412.7</v>
       </c>
     </row>
     <row r="26">
@@ -1913,7 +1913,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>92443.45</v>
+        <v>3697737.95</v>
       </c>
     </row>
     <row r="27">
@@ -1931,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>187695.24</v>
+        <v>7507809.67</v>
       </c>
     </row>
     <row r="28">
@@ -1949,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>74172.44</v>
+        <v>2966897.67</v>
       </c>
     </row>
     <row r="29">
@@ -1967,7 +1967,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>116066.53</v>
+        <v>4642661</v>
       </c>
     </row>
     <row r="30">
@@ -1985,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>116066.53</v>
+        <v>4642661</v>
       </c>
     </row>
     <row r="31">
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>93864.49000000001</v>
+        <v>3754579.78</v>
       </c>
     </row>
     <row r="33">
@@ -2039,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>93041.28</v>
+        <v>3721651.02</v>
       </c>
     </row>
     <row r="34">
@@ -2057,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>105038.14</v>
+        <v>4201525.62</v>
       </c>
     </row>
     <row r="35">
@@ -2075,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>119975.3</v>
+        <v>4799011.88</v>
       </c>
     </row>
     <row r="36">
@@ -2093,7 +2093,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>60581.89</v>
+        <v>2423275.48</v>
       </c>
     </row>
     <row r="37">
@@ -2111,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>173275.19</v>
+        <v>6931007.68</v>
       </c>
     </row>
     <row r="38">
@@ -2129,7 +2129,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>201060.5</v>
+        <v>8042419.81</v>
       </c>
     </row>
     <row r="39">
@@ -2147,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>17805.5</v>
+        <v>712219.83</v>
       </c>
     </row>
     <row r="40">
@@ -2165,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>101545.25</v>
+        <v>4061810.17</v>
       </c>
     </row>
     <row r="41">
@@ -2183,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>138482.99</v>
+        <v>5539319.77</v>
       </c>
     </row>
     <row r="42">
@@ -2201,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>123355.82</v>
+        <v>4934232.95</v>
       </c>
     </row>
     <row r="43">
@@ -2219,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>66978.81</v>
+        <v>2679152.55</v>
       </c>
     </row>
     <row r="44">
@@ -2237,7 +2237,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>187183.59</v>
+        <v>7487343.55</v>
       </c>
     </row>
     <row r="45">
@@ -2255,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>116066.53</v>
+        <v>4642661</v>
       </c>
     </row>
     <row r="46">
@@ -2291,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>132457.84</v>
+        <v>5298313.43</v>
       </c>
     </row>
     <row r="48">
@@ -2309,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>142196.42</v>
+        <v>5687856.74</v>
       </c>
     </row>
     <row r="49">
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>77171.63</v>
+        <v>3086865.4</v>
       </c>
     </row>
     <row r="50">
@@ -2345,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>87717.31</v>
+        <v>3508692.52</v>
       </c>
     </row>
     <row r="51">
@@ -2363,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>72905.16</v>
+        <v>2916206.32</v>
       </c>
     </row>
     <row r="52">
@@ -2381,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>131679</v>
+        <v>5267159.98</v>
       </c>
     </row>
     <row r="53">
@@ -2399,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>112748.05</v>
+        <v>4509921.91</v>
       </c>
     </row>
     <row r="54">
@@ -2417,7 +2417,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>114004.36</v>
+        <v>4560174.34</v>
       </c>
     </row>
     <row r="55">
@@ -2435,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>160928.55</v>
+        <v>6437142.2</v>
       </c>
     </row>
     <row r="56">
@@ -2453,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>187183.59</v>
+        <v>7487343.55</v>
       </c>
     </row>
     <row r="57">
@@ -2489,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>60305.08</v>
+        <v>2412203.19</v>
       </c>
     </row>
     <row r="59">
@@ -2507,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>93864.49000000001</v>
+        <v>3754579.78</v>
       </c>
     </row>
     <row r="60">
@@ -2543,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>3967.82</v>
+        <v>158712.86</v>
       </c>
     </row>
     <row r="62">
@@ -2561,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>174506.93</v>
+        <v>6980277.27</v>
       </c>
     </row>
     <row r="63">
@@ -2579,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>162788.04</v>
+        <v>6511521.72</v>
       </c>
     </row>
     <row r="64">
@@ -2597,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>75755.63</v>
+        <v>3030225.24</v>
       </c>
     </row>
     <row r="65">
@@ -2615,7 +2615,7 @@
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>224239.36</v>
+        <v>8969574.210000001</v>
       </c>
     </row>
     <row r="66">
@@ -2633,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>231898.94</v>
+        <v>9275957.49</v>
       </c>
     </row>
     <row r="67">
@@ -2651,7 +2651,7 @@
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>76773.82000000001</v>
+        <v>3070952.68</v>
       </c>
     </row>
     <row r="68">
@@ -2669,7 +2669,7 @@
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>32175.57</v>
+        <v>1287022.75</v>
       </c>
     </row>
     <row r="69">
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>200666.91</v>
+        <v>8026676.38</v>
       </c>
     </row>
     <row r="70">
@@ -2705,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>193255.01</v>
+        <v>7730200.45</v>
       </c>
     </row>
     <row r="71">
@@ -2723,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>27796.8</v>
+        <v>1111872.03</v>
       </c>
     </row>
     <row r="72">
@@ -2741,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>107198.52</v>
+        <v>4287940.92</v>
       </c>
     </row>
     <row r="73">
@@ -2759,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>60305.08</v>
+        <v>2412203.19</v>
       </c>
     </row>
     <row r="74">
@@ -2777,7 +2777,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>93864.49000000001</v>
+        <v>3754579.78</v>
       </c>
     </row>
     <row r="75">
@@ -2795,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>203130.54</v>
+        <v>8125221.54</v>
       </c>
     </row>
     <row r="76">
@@ -2813,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>187001.09</v>
+        <v>7480043.45</v>
       </c>
     </row>
     <row r="77">
@@ -2831,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>161507.93</v>
+        <v>6460317.15</v>
       </c>
     </row>
     <row r="78">
@@ -2849,7 +2849,7 @@
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>10896.24</v>
+        <v>435849.43</v>
       </c>
     </row>
     <row r="79">
@@ -2867,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>102082.07</v>
+        <v>4083282.83</v>
       </c>
     </row>
     <row r="80">
@@ -2885,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>58079.68</v>
+        <v>2323187.1</v>
       </c>
     </row>
     <row r="81">
@@ -2903,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>75866.25999999999</v>
+        <v>3034650.42</v>
       </c>
     </row>
     <row r="82">
@@ -2921,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>132497.27</v>
+        <v>5299890.95</v>
       </c>
     </row>
     <row r="83">
@@ -2939,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>217688.09</v>
+        <v>8707523.75</v>
       </c>
     </row>
     <row r="84">
@@ -2957,7 +2957,7 @@
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>107198.52</v>
+        <v>4287940.92</v>
       </c>
     </row>
     <row r="85">
@@ -2975,7 +2975,7 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>93864.49000000001</v>
+        <v>3754579.78</v>
       </c>
     </row>
     <row r="86">
@@ -2993,7 +2993,7 @@
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>64237.01</v>
+        <v>2569480.43</v>
       </c>
     </row>
     <row r="87">
@@ -3011,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>93041.28</v>
+        <v>3721651.02</v>
       </c>
     </row>
     <row r="88">
@@ -3029,7 +3029,7 @@
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>3967.82</v>
+        <v>158712.86</v>
       </c>
     </row>
     <row r="89">
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>175730.36</v>
+        <v>7029214.56</v>
       </c>
     </row>
     <row r="91">
@@ -3083,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>165020.61</v>
+        <v>6600824.42</v>
       </c>
     </row>
     <row r="92">
@@ -3101,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>77633.92</v>
+        <v>3105356.75</v>
       </c>
     </row>
     <row r="93">
@@ -3119,7 +3119,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>226435.72</v>
+        <v>9057428.92</v>
       </c>
     </row>
     <row r="94">
@@ -3137,7 +3137,7 @@
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>234781.97</v>
+        <v>9391278.630000001</v>
       </c>
     </row>
     <row r="95">
@@ -3155,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>75740.23</v>
+        <v>3029609.25</v>
       </c>
     </row>
     <row r="96">
@@ -3173,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>36102.4</v>
+        <v>1444095.93</v>
       </c>
     </row>
     <row r="97">
@@ -3191,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>202333.44</v>
+        <v>8093337.64</v>
       </c>
     </row>
     <row r="98">
@@ -3209,7 +3209,7 @@
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>194539.28</v>
+        <v>7781571.03</v>
       </c>
     </row>
     <row r="99">
@@ -3227,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>26330.89</v>
+        <v>1053235.53</v>
       </c>
     </row>
     <row r="100">
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>110513.1</v>
+        <v>4420524.16</v>
       </c>
     </row>
     <row r="101">
@@ -3263,7 +3263,7 @@
         <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>64237.01</v>
+        <v>2569480.43</v>
       </c>
     </row>
     <row r="102">
@@ -3281,7 +3281,7 @@
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>93041.28</v>
+        <v>3721651.02</v>
       </c>
     </row>
     <row r="103">
@@ -3299,7 +3299,7 @@
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>204412.16</v>
+        <v>8176486.27</v>
       </c>
     </row>
     <row r="104">
@@ -3317,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>189288.32</v>
+        <v>7571532.89</v>
       </c>
     </row>
     <row r="105">
@@ -3335,7 +3335,7 @@
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>161846.72</v>
+        <v>6473868.99</v>
       </c>
     </row>
     <row r="106">
@@ -3353,7 +3353,7 @@
         <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>13773.47</v>
+        <v>550938.78</v>
       </c>
     </row>
     <row r="107">
@@ -3371,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>104139.32</v>
+        <v>4165572.81</v>
       </c>
     </row>
     <row r="108">
@@ -3389,7 +3389,7 @@
         <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>61919.7</v>
+        <v>2476787.94</v>
       </c>
     </row>
     <row r="109">
@@ -3407,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>79591.92999999999</v>
+        <v>3183677.28</v>
       </c>
     </row>
     <row r="110">
@@ -3425,7 +3425,7 @@
         <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>135300.37</v>
+        <v>5412014.93</v>
       </c>
     </row>
     <row r="111">
@@ -3443,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>219639.44</v>
+        <v>8785577.609999999</v>
       </c>
     </row>
     <row r="112">
@@ -3461,7 +3461,7 @@
         <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>110513.1</v>
+        <v>4420524.16</v>
       </c>
     </row>
     <row r="113">
@@ -3479,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>93041.28</v>
+        <v>3721651.02</v>
       </c>
     </row>
     <row r="114">
@@ -3497,7 +3497,7 @@
         <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>158393.31</v>
+        <v>6335732.26</v>
       </c>
     </row>
     <row r="115">
@@ -3515,7 +3515,7 @@
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>105038.14</v>
+        <v>4201525.62</v>
       </c>
     </row>
     <row r="116">
@@ -3533,7 +3533,7 @@
         <v>1</v>
       </c>
       <c r="D116" t="n">
-        <v>174506.93</v>
+        <v>6980277.27</v>
       </c>
     </row>
     <row r="117">
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>175730.36</v>
+        <v>7029214.56</v>
       </c>
     </row>
     <row r="118">
@@ -3587,7 +3587,7 @@
         <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>49235.31</v>
+        <v>1969412.38</v>
       </c>
     </row>
     <row r="120">
@@ -3605,7 +3605,7 @@
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>100606.76</v>
+        <v>4024270.38</v>
       </c>
     </row>
     <row r="121">
@@ -3623,7 +3623,7 @@
         <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>73768.85000000001</v>
+        <v>2950754.07</v>
       </c>
     </row>
     <row r="122">
@@ -3641,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>115623.09</v>
+        <v>4624923.67</v>
       </c>
     </row>
     <row r="123">
@@ -3659,7 +3659,7 @@
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>118730</v>
+        <v>4749200.14</v>
       </c>
     </row>
     <row r="124">
@@ -3677,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>162942.28</v>
+        <v>6517691.04</v>
       </c>
     </row>
     <row r="125">
@@ -3695,7 +3695,7 @@
         <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>34678.9</v>
+        <v>1387156</v>
       </c>
     </row>
     <row r="126">
@@ -3713,7 +3713,7 @@
         <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>19013.62</v>
+        <v>760544.89</v>
       </c>
     </row>
     <row r="127">
@@ -3731,7 +3731,7 @@
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>155291.27</v>
+        <v>6211650.75</v>
       </c>
     </row>
     <row r="128">
@@ -3749,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>229353.88</v>
+        <v>9174155.050000001</v>
       </c>
     </row>
     <row r="129">
@@ -3767,7 +3767,7 @@
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>158393.31</v>
+        <v>6335732.26</v>
       </c>
     </row>
     <row r="130">
@@ -3785,7 +3785,7 @@
         <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>105038.14</v>
+        <v>4201525.62</v>
       </c>
     </row>
     <row r="131">
@@ -3803,7 +3803,7 @@
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>28802.16</v>
+        <v>1152086.29</v>
       </c>
     </row>
     <row r="132">
@@ -3821,7 +3821,7 @@
         <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>55904.16</v>
+        <v>2236166.43</v>
       </c>
     </row>
     <row r="133">
@@ -3839,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>40536.21</v>
+        <v>1621448.56</v>
       </c>
     </row>
     <row r="134">
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>164482.22</v>
+        <v>6579288.85</v>
       </c>
     </row>
     <row r="135">
@@ -3875,7 +3875,7 @@
         <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>78418.69</v>
+        <v>3136747.71</v>
       </c>
     </row>
     <row r="136">
@@ -3893,7 +3893,7 @@
         <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>181700.65</v>
+        <v>7268025.99</v>
       </c>
     </row>
     <row r="137">
@@ -3911,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>141105.65</v>
+        <v>5644226.11</v>
       </c>
     </row>
     <row r="138">
@@ -3929,7 +3929,7 @@
         <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>82459.14999999999</v>
+        <v>3298365.92</v>
       </c>
     </row>
     <row r="139">
@@ -3947,7 +3947,7 @@
         <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>58567.97</v>
+        <v>2342718.81</v>
       </c>
     </row>
     <row r="140">
@@ -3965,7 +3965,7 @@
         <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>229353.88</v>
+        <v>9174155.050000001</v>
       </c>
     </row>
     <row r="141">
@@ -3983,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>105038.14</v>
+        <v>4201525.62</v>
       </c>
     </row>
     <row r="142">
@@ -4001,7 +4001,7 @@
         <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>130732.83</v>
+        <v>5229313.04</v>
       </c>
     </row>
     <row r="143">
@@ -4019,7 +4019,7 @@
         <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>119975.3</v>
+        <v>4799011.88</v>
       </c>
     </row>
     <row r="144">
@@ -4037,7 +4037,7 @@
         <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>162788.04</v>
+        <v>6511521.72</v>
       </c>
     </row>
     <row r="145">
@@ -4055,7 +4055,7 @@
         <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>165020.61</v>
+        <v>6600824.42</v>
       </c>
     </row>
     <row r="146">
@@ -4073,7 +4073,7 @@
         <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>49235.31</v>
+        <v>1969412.38</v>
       </c>
     </row>
     <row r="147">
@@ -4109,7 +4109,7 @@
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>88001.38</v>
+        <v>3520055.16</v>
       </c>
     </row>
     <row r="149">
@@ -4127,7 +4127,7 @@
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>61471.72</v>
+        <v>2458868.8</v>
       </c>
     </row>
     <row r="150">
@@ -4145,7 +4145,7 @@
         <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>81185.62</v>
+        <v>3247424.79</v>
       </c>
     </row>
     <row r="151">
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>128017.92</v>
+        <v>5120716.93</v>
       </c>
     </row>
     <row r="152">
@@ -4181,7 +4181,7 @@
         <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>143075.09</v>
+        <v>5723003.69</v>
       </c>
     </row>
     <row r="153">
@@ -4199,7 +4199,7 @@
         <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>47956.14</v>
+        <v>1918245.68</v>
       </c>
     </row>
     <row r="154">
@@ -4217,7 +4217,7 @@
         <v>1</v>
       </c>
       <c r="D154" t="n">
-        <v>56254.2</v>
+        <v>2250168.19</v>
       </c>
     </row>
     <row r="155">
@@ -4235,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="D155" t="n">
-        <v>150459.44</v>
+        <v>6018377.43</v>
       </c>
     </row>
     <row r="156">
@@ -4253,7 +4253,7 @@
         <v>1</v>
       </c>
       <c r="D156" t="n">
-        <v>195271.39</v>
+        <v>7810855.59</v>
       </c>
     </row>
     <row r="157">
@@ -4271,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="D157" t="n">
-        <v>130732.83</v>
+        <v>5229313.04</v>
       </c>
     </row>
     <row r="158">
@@ -4289,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>119975.3</v>
+        <v>4799011.88</v>
       </c>
     </row>
     <row r="159">
@@ -4307,7 +4307,7 @@
         <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>63102.98</v>
+        <v>2524119.15</v>
       </c>
     </row>
     <row r="160">
@@ -4325,7 +4325,7 @@
         <v>1</v>
       </c>
       <c r="D160" t="n">
-        <v>24419.17</v>
+        <v>976766.88</v>
       </c>
     </row>
     <row r="161">
@@ -4343,7 +4343,7 @@
         <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>82428.39999999999</v>
+        <v>3297135.87</v>
       </c>
     </row>
     <row r="162">
@@ -4361,7 +4361,7 @@
         <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>151956.55</v>
+        <v>6078261.96</v>
       </c>
     </row>
     <row r="163">
@@ -4379,7 +4379,7 @@
         <v>1</v>
       </c>
       <c r="D163" t="n">
-        <v>61180.52</v>
+        <v>2447220.88</v>
       </c>
     </row>
     <row r="164">
@@ -4397,7 +4397,7 @@
         <v>1</v>
       </c>
       <c r="D164" t="n">
-        <v>154393.09</v>
+        <v>6175723.79</v>
       </c>
     </row>
     <row r="165">
@@ -4415,7 +4415,7 @@
         <v>1</v>
       </c>
       <c r="D165" t="n">
-        <v>110431.21</v>
+        <v>4417248.27</v>
       </c>
     </row>
     <row r="166">
@@ -4433,7 +4433,7 @@
         <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>40786.86</v>
+        <v>1631474.54</v>
       </c>
     </row>
     <row r="167">
@@ -4451,7 +4451,7 @@
         <v>1</v>
       </c>
       <c r="D167" t="n">
-        <v>56989.67</v>
+        <v>2279586.61</v>
       </c>
     </row>
     <row r="168">
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="D168" t="n">
-        <v>195271.39</v>
+        <v>7810855.59</v>
       </c>
     </row>
     <row r="169">
@@ -4487,7 +4487,7 @@
         <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>119975.3</v>
+        <v>4799011.88</v>
       </c>
     </row>
     <row r="170">
@@ -4505,7 +4505,7 @@
         <v>1</v>
       </c>
       <c r="D170" t="n">
-        <v>64396.65</v>
+        <v>2575865.92</v>
       </c>
     </row>
     <row r="171">
@@ -4523,7 +4523,7 @@
         <v>1</v>
       </c>
       <c r="D171" t="n">
-        <v>60581.89</v>
+        <v>2423275.48</v>
       </c>
     </row>
     <row r="172">
@@ -4541,7 +4541,7 @@
         <v>1</v>
       </c>
       <c r="D172" t="n">
-        <v>75755.63</v>
+        <v>3030225.24</v>
       </c>
     </row>
     <row r="173">
@@ -4559,7 +4559,7 @@
         <v>1</v>
       </c>
       <c r="D173" t="n">
-        <v>77633.92</v>
+        <v>3105356.75</v>
       </c>
     </row>
     <row r="174">
@@ -4577,7 +4577,7 @@
         <v>1</v>
       </c>
       <c r="D174" t="n">
-        <v>100606.76</v>
+        <v>4024270.38</v>
       </c>
     </row>
     <row r="175">
@@ -4595,7 +4595,7 @@
         <v>1</v>
       </c>
       <c r="D175" t="n">
-        <v>88001.38</v>
+        <v>3520055.16</v>
       </c>
     </row>
     <row r="176">
@@ -4631,7 +4631,7 @@
         <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>149161.5</v>
+        <v>5966459.95</v>
       </c>
     </row>
     <row r="178">
@@ -4649,7 +4649,7 @@
         <v>1</v>
       </c>
       <c r="D178" t="n">
-        <v>162353.96</v>
+        <v>6494158.53</v>
       </c>
     </row>
     <row r="179">
@@ -4667,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>56488.3</v>
+        <v>2259531.88</v>
       </c>
     </row>
     <row r="180">
@@ -4685,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="D180" t="n">
-        <v>62696.91</v>
+        <v>2507876.46</v>
       </c>
     </row>
     <row r="181">
@@ -4703,7 +4703,7 @@
         <v>1</v>
       </c>
       <c r="D181" t="n">
-        <v>125038.04</v>
+        <v>5001521.55</v>
       </c>
     </row>
     <row r="182">
@@ -4721,7 +4721,7 @@
         <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>118894.11</v>
+        <v>4755764.28</v>
       </c>
     </row>
     <row r="183">
@@ -4739,7 +4739,7 @@
         <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>62819.08</v>
+        <v>2512763.01</v>
       </c>
     </row>
     <row r="184">
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>138569.09</v>
+        <v>5542763.59</v>
       </c>
     </row>
     <row r="185">
@@ -4775,7 +4775,7 @@
         <v>1</v>
       </c>
       <c r="D185" t="n">
-        <v>64396.65</v>
+        <v>2575865.92</v>
       </c>
     </row>
     <row r="186">
@@ -4793,7 +4793,7 @@
         <v>1</v>
       </c>
       <c r="D186" t="n">
-        <v>60581.89</v>
+        <v>2423275.48</v>
       </c>
     </row>
     <row r="187">
@@ -4811,7 +4811,7 @@
         <v>1</v>
       </c>
       <c r="D187" t="n">
-        <v>128732.23</v>
+        <v>5149289.39</v>
       </c>
     </row>
     <row r="188">
@@ -4829,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="D188" t="n">
-        <v>112406.45</v>
+        <v>4496258.19</v>
       </c>
     </row>
     <row r="189">
@@ -4847,7 +4847,7 @@
         <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>96201.03</v>
+        <v>3848041.24</v>
       </c>
     </row>
     <row r="190">
@@ -4865,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="D190" t="n">
-        <v>65173.04</v>
+        <v>2606921.79</v>
       </c>
     </row>
     <row r="191">
@@ -4883,7 +4883,7 @@
         <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>26821.44</v>
+        <v>1072857.57</v>
       </c>
     </row>
     <row r="192">
@@ -4901,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="D192" t="n">
-        <v>85442.28999999999</v>
+        <v>3417691.75</v>
       </c>
     </row>
     <row r="193">
@@ -4919,7 +4919,7 @@
         <v>1</v>
       </c>
       <c r="D193" t="n">
-        <v>54859.14</v>
+        <v>2194365.57</v>
       </c>
     </row>
     <row r="194">
@@ -4937,7 +4937,7 @@
         <v>1</v>
       </c>
       <c r="D194" t="n">
-        <v>64327.8</v>
+        <v>2573111.99</v>
       </c>
     </row>
     <row r="195">
@@ -4955,7 +4955,7 @@
         <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>142007.86</v>
+        <v>5680314.33</v>
       </c>
     </row>
     <row r="196">
@@ -4973,7 +4973,7 @@
         <v>1</v>
       </c>
       <c r="D196" t="n">
-        <v>138569.09</v>
+        <v>5542763.59</v>
       </c>
     </row>
     <row r="197">
@@ -4991,7 +4991,7 @@
         <v>1</v>
       </c>
       <c r="D197" t="n">
-        <v>60581.89</v>
+        <v>2423275.48</v>
       </c>
     </row>
     <row r="198">
@@ -5009,7 +5009,7 @@
         <v>1</v>
       </c>
       <c r="D198" t="n">
-        <v>190043.33</v>
+        <v>7601733.23</v>
       </c>
     </row>
     <row r="199">
@@ -5027,7 +5027,7 @@
         <v>1</v>
       </c>
       <c r="D199" t="n">
-        <v>173275.19</v>
+        <v>6931007.68</v>
       </c>
     </row>
     <row r="200">
@@ -5045,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="D200" t="n">
-        <v>224239.36</v>
+        <v>8969574.210000001</v>
       </c>
     </row>
     <row r="201">
@@ -5063,7 +5063,7 @@
         <v>1</v>
       </c>
       <c r="D201" t="n">
-        <v>226435.72</v>
+        <v>9057428.92</v>
       </c>
     </row>
     <row r="202">
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="D202" t="n">
-        <v>73768.85000000001</v>
+        <v>2950754.07</v>
       </c>
     </row>
     <row r="203">
@@ -5099,7 +5099,7 @@
         <v>1</v>
       </c>
       <c r="D203" t="n">
-        <v>61471.72</v>
+        <v>2458868.8</v>
       </c>
     </row>
     <row r="204">
@@ -5117,7 +5117,7 @@
         <v>1</v>
       </c>
       <c r="D204" t="n">
-        <v>149161.5</v>
+        <v>5966459.95</v>
       </c>
     </row>
     <row r="205">
@@ -5153,7 +5153,7 @@
         <v>1</v>
       </c>
       <c r="D206" t="n">
-        <v>52418.55</v>
+        <v>2096741.94</v>
       </c>
     </row>
     <row r="207">
@@ -5171,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="D207" t="n">
-        <v>184142.68</v>
+        <v>7365707.31</v>
       </c>
     </row>
     <row r="208">
@@ -5189,7 +5189,7 @@
         <v>1</v>
       </c>
       <c r="D208" t="n">
-        <v>204145.1</v>
+        <v>8165804.13</v>
       </c>
     </row>
     <row r="209">
@@ -5207,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="D209" t="n">
-        <v>40353.97</v>
+        <v>1614158.67</v>
       </c>
     </row>
     <row r="210">
@@ -5225,7 +5225,7 @@
         <v>1</v>
       </c>
       <c r="D210" t="n">
-        <v>62060.76</v>
+        <v>2482430.57</v>
       </c>
     </row>
     <row r="211">
@@ -5243,7 +5243,7 @@
         <v>1</v>
       </c>
       <c r="D211" t="n">
-        <v>211146.35</v>
+        <v>8445854.16</v>
       </c>
     </row>
     <row r="212">
@@ -5261,7 +5261,7 @@
         <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>249713.09</v>
+        <v>9988523.77</v>
       </c>
     </row>
     <row r="213">
@@ -5279,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="D213" t="n">
-        <v>190043.33</v>
+        <v>7601733.23</v>
       </c>
     </row>
     <row r="214">
@@ -5297,7 +5297,7 @@
         <v>1</v>
       </c>
       <c r="D214" t="n">
-        <v>173275.19</v>
+        <v>6931007.68</v>
       </c>
     </row>
     <row r="215">
@@ -5315,7 +5315,7 @@
         <v>1</v>
       </c>
       <c r="D215" t="n">
-        <v>59075.79</v>
+        <v>2363031.62</v>
       </c>
     </row>
     <row r="216">
@@ -5333,7 +5333,7 @@
         <v>1</v>
       </c>
       <c r="D216" t="n">
-        <v>37629.48</v>
+        <v>1505179.28</v>
       </c>
     </row>
     <row r="217">
@@ -5351,7 +5351,7 @@
         <v>1</v>
       </c>
       <c r="D217" t="n">
-        <v>113992.21</v>
+        <v>4559688.47</v>
       </c>
     </row>
     <row r="218">
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="D218" t="n">
-        <v>213417</v>
+        <v>8536679.9</v>
       </c>
     </row>
     <row r="219">
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="D219" t="n">
-        <v>122397.85</v>
+        <v>4895914.18</v>
       </c>
     </row>
     <row r="220">
@@ -5405,7 +5405,7 @@
         <v>1</v>
       </c>
       <c r="D220" t="n">
-        <v>213412.06</v>
+        <v>8536482.43</v>
       </c>
     </row>
     <row r="221">
@@ -5423,7 +5423,7 @@
         <v>1</v>
       </c>
       <c r="D221" t="n">
-        <v>169025.73</v>
+        <v>6761029.07</v>
       </c>
     </row>
     <row r="222">
@@ -5441,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="D222" t="n">
-        <v>97657.61</v>
+        <v>3906304.6</v>
       </c>
     </row>
     <row r="223">
@@ -5459,7 +5459,7 @@
         <v>1</v>
       </c>
       <c r="D223" t="n">
-        <v>17390.83</v>
+        <v>695633.1899999999</v>
       </c>
     </row>
     <row r="224">
@@ -5477,7 +5477,7 @@
         <v>1</v>
       </c>
       <c r="D224" t="n">
-        <v>249713.09</v>
+        <v>9988523.77</v>
       </c>
     </row>
     <row r="225">
@@ -5495,7 +5495,7 @@
         <v>1</v>
       </c>
       <c r="D225" t="n">
-        <v>173275.19</v>
+        <v>6931007.68</v>
       </c>
     </row>
     <row r="226">
@@ -5513,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="D226" t="n">
-        <v>186324.38</v>
+        <v>7452975.17</v>
       </c>
     </row>
     <row r="227">
@@ -5531,7 +5531,7 @@
         <v>1</v>
       </c>
       <c r="D227" t="n">
-        <v>201060.5</v>
+        <v>8042419.81</v>
       </c>
     </row>
     <row r="228">
@@ -5549,7 +5549,7 @@
         <v>1</v>
       </c>
       <c r="D228" t="n">
-        <v>231898.94</v>
+        <v>9275957.49</v>
       </c>
     </row>
     <row r="229">
@@ -5567,7 +5567,7 @@
         <v>1</v>
       </c>
       <c r="D229" t="n">
-        <v>234781.97</v>
+        <v>9391278.630000001</v>
       </c>
     </row>
     <row r="230">
@@ -5585,7 +5585,7 @@
         <v>1</v>
       </c>
       <c r="D230" t="n">
-        <v>115623.09</v>
+        <v>4624923.67</v>
       </c>
     </row>
     <row r="231">
@@ -5603,7 +5603,7 @@
         <v>1</v>
       </c>
       <c r="D231" t="n">
-        <v>81185.62</v>
+        <v>3247424.79</v>
       </c>
     </row>
     <row r="232">
@@ -5621,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="D232" t="n">
-        <v>162353.96</v>
+        <v>6494158.53</v>
       </c>
     </row>
     <row r="233">
@@ -5639,7 +5639,7 @@
         <v>1</v>
       </c>
       <c r="D233" t="n">
-        <v>52418.55</v>
+        <v>2096741.94</v>
       </c>
     </row>
     <row r="234">
@@ -5675,7 +5675,7 @@
         <v>1</v>
       </c>
       <c r="D235" t="n">
-        <v>208281.28</v>
+        <v>8331251.21</v>
       </c>
     </row>
     <row r="236">
@@ -5693,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="D236" t="n">
-        <v>206365.61</v>
+        <v>8254624.3</v>
       </c>
     </row>
     <row r="237">
@@ -5711,7 +5711,7 @@
         <v>1</v>
       </c>
       <c r="D237" t="n">
-        <v>87754.27</v>
+        <v>3510170.84</v>
       </c>
     </row>
     <row r="238">
@@ -5729,7 +5729,7 @@
         <v>1</v>
       </c>
       <c r="D238" t="n">
-        <v>109147.02</v>
+        <v>4365880.64</v>
       </c>
     </row>
     <row r="239">
@@ -5747,7 +5747,7 @@
         <v>1</v>
       </c>
       <c r="D239" t="n">
-        <v>224770.36</v>
+        <v>8990814.43</v>
       </c>
     </row>
     <row r="240">
@@ -5765,7 +5765,7 @@
         <v>1</v>
       </c>
       <c r="D240" t="n">
-        <v>233679.09</v>
+        <v>9347163.43</v>
       </c>
     </row>
     <row r="241">
@@ -5783,7 +5783,7 @@
         <v>1</v>
       </c>
       <c r="D241" t="n">
-        <v>186324.38</v>
+        <v>7452975.17</v>
       </c>
     </row>
     <row r="242">
@@ -5801,7 +5801,7 @@
         <v>1</v>
       </c>
       <c r="D242" t="n">
-        <v>201060.5</v>
+        <v>8042419.81</v>
       </c>
     </row>
     <row r="243">
@@ -5819,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="D243" t="n">
-        <v>108576.16</v>
+        <v>4343046.22</v>
       </c>
     </row>
     <row r="244">
@@ -5837,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="D244" t="n">
-        <v>61408.28</v>
+        <v>2456331.24</v>
       </c>
     </row>
     <row r="245">
@@ -5855,7 +5855,7 @@
         <v>1</v>
       </c>
       <c r="D245" t="n">
-        <v>155624.98</v>
+        <v>6224999.17</v>
       </c>
     </row>
     <row r="246">
@@ -5873,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="D246" t="n">
-        <v>221077.64</v>
+        <v>8843105.57</v>
       </c>
     </row>
     <row r="247">
@@ -5891,7 +5891,7 @@
         <v>1</v>
       </c>
       <c r="D247" t="n">
-        <v>136676.15</v>
+        <v>5467045.87</v>
       </c>
     </row>
     <row r="248">
@@ -5909,7 +5909,7 @@
         <v>1</v>
       </c>
       <c r="D248" t="n">
-        <v>207816.87</v>
+        <v>8312674.8</v>
       </c>
     </row>
     <row r="249">
@@ -5927,7 +5927,7 @@
         <v>1</v>
       </c>
       <c r="D249" t="n">
-        <v>164819.06</v>
+        <v>6592762.33</v>
       </c>
     </row>
     <row r="250">
@@ -5945,7 +5945,7 @@
         <v>1</v>
       </c>
       <c r="D250" t="n">
-        <v>99575.39</v>
+        <v>3983015.42</v>
       </c>
     </row>
     <row r="251">
@@ -5963,7 +5963,7 @@
         <v>1</v>
       </c>
       <c r="D251" t="n">
-        <v>68820.53999999999</v>
+        <v>2752821.41</v>
       </c>
     </row>
     <row r="252">
@@ -5981,7 +5981,7 @@
         <v>1</v>
       </c>
       <c r="D252" t="n">
-        <v>233679.09</v>
+        <v>9347163.43</v>
       </c>
     </row>
     <row r="253">
@@ -5999,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="D253" t="n">
-        <v>201060.5</v>
+        <v>8042419.81</v>
       </c>
     </row>
     <row r="254">
@@ -6017,7 +6017,7 @@
         <v>1</v>
       </c>
       <c r="D254" t="n">
-        <v>104450.44</v>
+        <v>4178017.49</v>
       </c>
     </row>
     <row r="255">
@@ -6035,7 +6035,7 @@
         <v>1</v>
       </c>
       <c r="D255" t="n">
-        <v>17805.5</v>
+        <v>712219.83</v>
       </c>
     </row>
     <row r="256">
@@ -6053,7 +6053,7 @@
         <v>1</v>
       </c>
       <c r="D256" t="n">
-        <v>76773.82000000001</v>
+        <v>3070952.68</v>
       </c>
     </row>
     <row r="257">
@@ -6071,7 +6071,7 @@
         <v>1</v>
       </c>
       <c r="D257" t="n">
-        <v>75740.23</v>
+        <v>3029609.25</v>
       </c>
     </row>
     <row r="258">
@@ -6089,7 +6089,7 @@
         <v>1</v>
       </c>
       <c r="D258" t="n">
-        <v>118730</v>
+        <v>4749200.14</v>
       </c>
     </row>
     <row r="259">
@@ -6107,7 +6107,7 @@
         <v>1</v>
       </c>
       <c r="D259" t="n">
-        <v>128017.92</v>
+        <v>5120716.93</v>
       </c>
     </row>
     <row r="260">
@@ -6125,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="D260" t="n">
-        <v>56488.3</v>
+        <v>2259531.88</v>
       </c>
     </row>
     <row r="261">
@@ -6143,7 +6143,7 @@
         <v>1</v>
       </c>
       <c r="D261" t="n">
-        <v>184142.68</v>
+        <v>7365707.31</v>
       </c>
     </row>
     <row r="262">
@@ -6161,7 +6161,7 @@
         <v>1</v>
       </c>
       <c r="D262" t="n">
-        <v>208281.28</v>
+        <v>8331251.21</v>
       </c>
     </row>
     <row r="263">
@@ -6197,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="D264" t="n">
-        <v>87175.08</v>
+        <v>3487003.02</v>
       </c>
     </row>
     <row r="265">
@@ -6215,7 +6215,7 @@
         <v>1</v>
       </c>
       <c r="D265" t="n">
-        <v>151165.45</v>
+        <v>6046618.04</v>
       </c>
     </row>
     <row r="266">
@@ -6233,7 +6233,7 @@
         <v>1</v>
       </c>
       <c r="D266" t="n">
-        <v>137440.03</v>
+        <v>5497601.26</v>
       </c>
     </row>
     <row r="267">
@@ -6251,7 +6251,7 @@
         <v>1</v>
       </c>
       <c r="D267" t="n">
-        <v>49510.82</v>
+        <v>1980432.84</v>
       </c>
     </row>
     <row r="268">
@@ -6269,7 +6269,7 @@
         <v>1</v>
       </c>
       <c r="D268" t="n">
-        <v>173428.24</v>
+        <v>6937129.63</v>
       </c>
     </row>
     <row r="269">
@@ -6287,7 +6287,7 @@
         <v>1</v>
       </c>
       <c r="D269" t="n">
-        <v>104450.44</v>
+        <v>4178017.49</v>
       </c>
     </row>
     <row r="270">
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="D270" t="n">
-        <v>17805.5</v>
+        <v>712219.83</v>
       </c>
     </row>
     <row r="271">
@@ -6323,7 +6323,7 @@
         <v>1</v>
       </c>
       <c r="D271" t="n">
-        <v>146817.76</v>
+        <v>5872710.28</v>
       </c>
     </row>
     <row r="272">
@@ -6341,7 +6341,7 @@
         <v>1</v>
       </c>
       <c r="D272" t="n">
-        <v>151261.16</v>
+        <v>6050446.44</v>
       </c>
     </row>
     <row r="273">
@@ -6359,7 +6359,7 @@
         <v>1</v>
       </c>
       <c r="D273" t="n">
-        <v>93725.8</v>
+        <v>3749032.01</v>
       </c>
     </row>
     <row r="274">
@@ -6377,7 +6377,7 @@
         <v>1</v>
       </c>
       <c r="D274" t="n">
-        <v>71295.63</v>
+        <v>2851825.19</v>
       </c>
     </row>
     <row r="275">
@@ -6395,7 +6395,7 @@
         <v>1</v>
       </c>
       <c r="D275" t="n">
-        <v>74743.17</v>
+        <v>2989726.79</v>
       </c>
     </row>
     <row r="276">
@@ -6413,7 +6413,7 @@
         <v>1</v>
       </c>
       <c r="D276" t="n">
-        <v>118065.48</v>
+        <v>4722619.12</v>
       </c>
     </row>
     <row r="277">
@@ -6431,7 +6431,7 @@
         <v>1</v>
       </c>
       <c r="D277" t="n">
-        <v>103999.13</v>
+        <v>4159965.23</v>
       </c>
     </row>
     <row r="278">
@@ -6449,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="D278" t="n">
-        <v>116377.79</v>
+        <v>4655111.64</v>
       </c>
     </row>
     <row r="279">
@@ -6467,7 +6467,7 @@
         <v>1</v>
       </c>
       <c r="D279" t="n">
-        <v>172806.78</v>
+        <v>6912271.13</v>
       </c>
     </row>
     <row r="280">
@@ -6485,7 +6485,7 @@
         <v>1</v>
       </c>
       <c r="D280" t="n">
-        <v>173428.24</v>
+        <v>6937129.63</v>
       </c>
     </row>
     <row r="281">
@@ -6503,7 +6503,7 @@
         <v>1</v>
       </c>
       <c r="D281" t="n">
-        <v>17805.5</v>
+        <v>712219.83</v>
       </c>
     </row>
     <row r="282">
@@ -6521,7 +6521,7 @@
         <v>1</v>
       </c>
       <c r="D282" t="n">
-        <v>28135.8</v>
+        <v>1125431.99</v>
       </c>
     </row>
     <row r="283">
@@ -6539,7 +6539,7 @@
         <v>1</v>
       </c>
       <c r="D283" t="n">
-        <v>101545.25</v>
+        <v>4061810.17</v>
       </c>
     </row>
     <row r="284">
@@ -6557,7 +6557,7 @@
         <v>1</v>
       </c>
       <c r="D284" t="n">
-        <v>32175.57</v>
+        <v>1287022.75</v>
       </c>
     </row>
     <row r="285">
@@ -6575,7 +6575,7 @@
         <v>1</v>
       </c>
       <c r="D285" t="n">
-        <v>36102.4</v>
+        <v>1444095.93</v>
       </c>
     </row>
     <row r="286">
@@ -6593,7 +6593,7 @@
         <v>1</v>
       </c>
       <c r="D286" t="n">
-        <v>162942.28</v>
+        <v>6517691.04</v>
       </c>
     </row>
     <row r="287">
@@ -6611,7 +6611,7 @@
         <v>1</v>
       </c>
       <c r="D287" t="n">
-        <v>143075.09</v>
+        <v>5723003.69</v>
       </c>
     </row>
     <row r="288">
@@ -6629,7 +6629,7 @@
         <v>1</v>
       </c>
       <c r="D288" t="n">
-        <v>62696.91</v>
+        <v>2507876.46</v>
       </c>
     </row>
     <row r="289">
@@ -6647,7 +6647,7 @@
         <v>1</v>
       </c>
       <c r="D289" t="n">
-        <v>204145.1</v>
+        <v>8165804.13</v>
       </c>
     </row>
     <row r="290">
@@ -6665,7 +6665,7 @@
         <v>1</v>
       </c>
       <c r="D290" t="n">
-        <v>206365.61</v>
+        <v>8254624.3</v>
       </c>
     </row>
     <row r="291">
@@ -6683,7 +6683,7 @@
         <v>1</v>
       </c>
       <c r="D291" t="n">
-        <v>87175.08</v>
+        <v>3487003.02</v>
       </c>
     </row>
     <row r="292">
@@ -6719,7 +6719,7 @@
         <v>1</v>
       </c>
       <c r="D293" t="n">
-        <v>185085.73</v>
+        <v>7403429.2</v>
       </c>
     </row>
     <row r="294">
@@ -6737,7 +6737,7 @@
         <v>1</v>
       </c>
       <c r="D294" t="n">
-        <v>180893.35</v>
+        <v>7235734.08</v>
       </c>
     </row>
     <row r="295">
@@ -6755,7 +6755,7 @@
         <v>1</v>
       </c>
       <c r="D295" t="n">
-        <v>48217.48</v>
+        <v>1928699.23</v>
       </c>
     </row>
     <row r="296">
@@ -6773,7 +6773,7 @@
         <v>1</v>
       </c>
       <c r="D296" t="n">
-        <v>86333.28999999999</v>
+        <v>3453331.42</v>
       </c>
     </row>
     <row r="297">
@@ -6791,7 +6791,7 @@
         <v>1</v>
       </c>
       <c r="D297" t="n">
-        <v>28135.8</v>
+        <v>1125431.99</v>
       </c>
     </row>
     <row r="298">
@@ -6809,7 +6809,7 @@
         <v>1</v>
       </c>
       <c r="D298" t="n">
-        <v>101545.25</v>
+        <v>4061810.17</v>
       </c>
     </row>
     <row r="299">
@@ -6827,7 +6827,7 @@
         <v>1</v>
       </c>
       <c r="D299" t="n">
-        <v>190657.58</v>
+        <v>7626303.19</v>
       </c>
     </row>
     <row r="300">
@@ -6845,7 +6845,7 @@
         <v>1</v>
       </c>
       <c r="D300" t="n">
-        <v>166520.18</v>
+        <v>6660807.28</v>
       </c>
     </row>
     <row r="301">
@@ -6863,7 +6863,7 @@
         <v>1</v>
       </c>
       <c r="D301" t="n">
-        <v>157456.05</v>
+        <v>6298241.98</v>
       </c>
     </row>
     <row r="302">
@@ -6881,7 +6881,7 @@
         <v>1</v>
       </c>
       <c r="D302" t="n">
-        <v>25086.62</v>
+        <v>1003464.75</v>
       </c>
     </row>
     <row r="303">
@@ -6899,7 +6899,7 @@
         <v>1</v>
       </c>
       <c r="D303" t="n">
-        <v>85556.48</v>
+        <v>3422259.07</v>
       </c>
     </row>
     <row r="304">
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="D304" t="n">
-        <v>31446.09</v>
+        <v>1257843.71</v>
       </c>
     </row>
     <row r="305">
@@ -6935,7 +6935,7 @@
         <v>1</v>
       </c>
       <c r="D305" t="n">
-        <v>44874.13</v>
+        <v>1794965.27</v>
       </c>
     </row>
     <row r="306">
@@ -6953,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="D306" t="n">
-        <v>108507.6</v>
+        <v>4340304.1</v>
       </c>
     </row>
     <row r="307">
@@ -6971,7 +6971,7 @@
         <v>1</v>
       </c>
       <c r="D307" t="n">
-        <v>199617.36</v>
+        <v>7984694.59</v>
       </c>
     </row>
     <row r="308">
@@ -6989,7 +6989,7 @@
         <v>1</v>
       </c>
       <c r="D308" t="n">
-        <v>86333.28999999999</v>
+        <v>3453331.42</v>
       </c>
     </row>
     <row r="309">
@@ -7007,7 +7007,7 @@
         <v>1</v>
       </c>
       <c r="D309" t="n">
-        <v>101545.25</v>
+        <v>4061810.17</v>
       </c>
     </row>
     <row r="310">
@@ -7025,7 +7025,7 @@
         <v>1</v>
       </c>
       <c r="D310" t="n">
-        <v>175984.8</v>
+        <v>7039392.17</v>
       </c>
     </row>
     <row r="311">
@@ -7043,7 +7043,7 @@
         <v>1</v>
       </c>
       <c r="D311" t="n">
-        <v>138482.99</v>
+        <v>5539319.77</v>
       </c>
     </row>
     <row r="312">
@@ -7061,7 +7061,7 @@
         <v>1</v>
       </c>
       <c r="D312" t="n">
-        <v>200666.91</v>
+        <v>8026676.38</v>
       </c>
     </row>
     <row r="313">
@@ -7079,7 +7079,7 @@
         <v>1</v>
       </c>
       <c r="D313" t="n">
-        <v>202333.44</v>
+        <v>8093337.64</v>
       </c>
     </row>
     <row r="314">
@@ -7097,7 +7097,7 @@
         <v>1</v>
       </c>
       <c r="D314" t="n">
-        <v>34678.9</v>
+        <v>1387156</v>
       </c>
     </row>
     <row r="315">
@@ -7115,7 +7115,7 @@
         <v>1</v>
       </c>
       <c r="D315" t="n">
-        <v>47956.14</v>
+        <v>1918245.68</v>
       </c>
     </row>
     <row r="316">
@@ -7133,7 +7133,7 @@
         <v>1</v>
       </c>
       <c r="D316" t="n">
-        <v>125038.04</v>
+        <v>5001521.55</v>
       </c>
     </row>
     <row r="317">
@@ -7151,7 +7151,7 @@
         <v>1</v>
       </c>
       <c r="D317" t="n">
-        <v>40353.97</v>
+        <v>1614158.67</v>
       </c>
     </row>
     <row r="318">
@@ -7169,7 +7169,7 @@
         <v>1</v>
       </c>
       <c r="D318" t="n">
-        <v>87754.27</v>
+        <v>3510170.84</v>
       </c>
     </row>
     <row r="319">
@@ -7187,7 +7187,7 @@
         <v>1</v>
       </c>
       <c r="D319" t="n">
-        <v>151165.45</v>
+        <v>6046618.04</v>
       </c>
     </row>
     <row r="320">
@@ -7205,7 +7205,7 @@
         <v>1</v>
       </c>
       <c r="D320" t="n">
-        <v>185085.73</v>
+        <v>7403429.2</v>
       </c>
     </row>
     <row r="321">
@@ -7241,7 +7241,7 @@
         <v>1</v>
       </c>
       <c r="D322" t="n">
-        <v>21860.02</v>
+        <v>874400.75</v>
       </c>
     </row>
     <row r="323">
@@ -7259,7 +7259,7 @@
         <v>1</v>
       </c>
       <c r="D323" t="n">
-        <v>183975.73</v>
+        <v>7359029.22</v>
       </c>
     </row>
     <row r="324">
@@ -7277,7 +7277,7 @@
         <v>1</v>
       </c>
       <c r="D324" t="n">
-        <v>242709.29</v>
+        <v>9708371.74</v>
       </c>
     </row>
     <row r="325">
@@ -7295,7 +7295,7 @@
         <v>1</v>
       </c>
       <c r="D325" t="n">
-        <v>175984.8</v>
+        <v>7039392.17</v>
       </c>
     </row>
     <row r="326">
@@ -7313,7 +7313,7 @@
         <v>1</v>
       </c>
       <c r="D326" t="n">
-        <v>138482.99</v>
+        <v>5539319.77</v>
       </c>
     </row>
     <row r="327">
@@ -7331,7 +7331,7 @@
         <v>1</v>
       </c>
       <c r="D327" t="n">
-        <v>21273.32</v>
+        <v>850932.74</v>
       </c>
     </row>
     <row r="328">
@@ -7349,7 +7349,7 @@
         <v>1</v>
       </c>
       <c r="D328" t="n">
-        <v>37591.29</v>
+        <v>1503651.55</v>
       </c>
     </row>
     <row r="329">
@@ -7367,7 +7367,7 @@
         <v>1</v>
       </c>
       <c r="D329" t="n">
-        <v>74052.64</v>
+        <v>2962105.49</v>
       </c>
     </row>
     <row r="330">
@@ -7385,7 +7385,7 @@
         <v>1</v>
       </c>
       <c r="D330" t="n">
-        <v>190182.77</v>
+        <v>7607310.89</v>
       </c>
     </row>
     <row r="331">
@@ -7403,7 +7403,7 @@
         <v>1</v>
       </c>
       <c r="D331" t="n">
-        <v>99700.42</v>
+        <v>3988016.92</v>
       </c>
     </row>
     <row r="332">
@@ -7421,7 +7421,7 @@
         <v>1</v>
       </c>
       <c r="D332" t="n">
-        <v>199707.32</v>
+        <v>7988292.76</v>
       </c>
     </row>
     <row r="333">
@@ -7439,7 +7439,7 @@
         <v>1</v>
       </c>
       <c r="D333" t="n">
-        <v>156537.63</v>
+        <v>6261505.22</v>
       </c>
     </row>
     <row r="334">
@@ -7457,7 +7457,7 @@
         <v>1</v>
       </c>
       <c r="D334" t="n">
-        <v>88632.33</v>
+        <v>3545293.25</v>
       </c>
     </row>
     <row r="335">
@@ -7475,7 +7475,7 @@
         <v>1</v>
       </c>
       <c r="D335" t="n">
-        <v>24095.36</v>
+        <v>963814.39</v>
       </c>
     </row>
     <row r="336">
@@ -7493,7 +7493,7 @@
         <v>1</v>
       </c>
       <c r="D336" t="n">
-        <v>242709.29</v>
+        <v>9708371.74</v>
       </c>
     </row>
     <row r="337">
@@ -7511,7 +7511,7 @@
         <v>1</v>
       </c>
       <c r="D337" t="n">
-        <v>138482.99</v>
+        <v>5539319.77</v>
       </c>
     </row>
     <row r="338">
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="D338" t="n">
-        <v>175081.47</v>
+        <v>7003258.85</v>
       </c>
     </row>
     <row r="339">
@@ -7547,7 +7547,7 @@
         <v>1</v>
       </c>
       <c r="D339" t="n">
-        <v>123355.82</v>
+        <v>4934232.95</v>
       </c>
     </row>
     <row r="340">
@@ -7565,7 +7565,7 @@
         <v>1</v>
       </c>
       <c r="D340" t="n">
-        <v>193255.01</v>
+        <v>7730200.45</v>
       </c>
     </row>
     <row r="341">
@@ -7583,7 +7583,7 @@
         <v>1</v>
       </c>
       <c r="D341" t="n">
-        <v>194539.28</v>
+        <v>7781571.03</v>
       </c>
     </row>
     <row r="342">
@@ -7601,7 +7601,7 @@
         <v>1</v>
       </c>
       <c r="D342" t="n">
-        <v>19013.62</v>
+        <v>760544.89</v>
       </c>
     </row>
     <row r="343">
@@ -7619,7 +7619,7 @@
         <v>1</v>
       </c>
       <c r="D343" t="n">
-        <v>56254.2</v>
+        <v>2250168.19</v>
       </c>
     </row>
     <row r="344">
@@ -7637,7 +7637,7 @@
         <v>1</v>
       </c>
       <c r="D344" t="n">
-        <v>118894.11</v>
+        <v>4755764.28</v>
       </c>
     </row>
     <row r="345">
@@ -7655,7 +7655,7 @@
         <v>1</v>
       </c>
       <c r="D345" t="n">
-        <v>62060.76</v>
+        <v>2482430.57</v>
       </c>
     </row>
     <row r="346">
@@ -7673,7 +7673,7 @@
         <v>1</v>
       </c>
       <c r="D346" t="n">
-        <v>109147.02</v>
+        <v>4365880.64</v>
       </c>
     </row>
     <row r="347">
@@ -7691,7 +7691,7 @@
         <v>1</v>
       </c>
       <c r="D347" t="n">
-        <v>137440.03</v>
+        <v>5497601.26</v>
       </c>
     </row>
     <row r="348">
@@ -7709,7 +7709,7 @@
         <v>1</v>
       </c>
       <c r="D348" t="n">
-        <v>180893.35</v>
+        <v>7235734.08</v>
       </c>
     </row>
     <row r="349">
@@ -7727,7 +7727,7 @@
         <v>1</v>
       </c>
       <c r="D349" t="n">
-        <v>21860.02</v>
+        <v>874400.75</v>
       </c>
     </row>
     <row r="350">
@@ -7763,7 +7763,7 @@
         <v>1</v>
       </c>
       <c r="D351" t="n">
-        <v>174280.23</v>
+        <v>6971209</v>
       </c>
     </row>
     <row r="352">
@@ -7781,7 +7781,7 @@
         <v>1</v>
       </c>
       <c r="D352" t="n">
-        <v>244854.19</v>
+        <v>9794167.73</v>
       </c>
     </row>
     <row r="353">
@@ -7799,7 +7799,7 @@
         <v>1</v>
       </c>
       <c r="D353" t="n">
-        <v>175081.47</v>
+        <v>7003258.85</v>
       </c>
     </row>
     <row r="354">
@@ -7817,7 +7817,7 @@
         <v>1</v>
       </c>
       <c r="D354" t="n">
-        <v>123355.82</v>
+        <v>4934232.95</v>
       </c>
     </row>
     <row r="355">
@@ -7835,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="D355" t="n">
-        <v>9875.639999999999</v>
+        <v>395025.47</v>
       </c>
     </row>
     <row r="356">
@@ -7853,7 +7853,7 @@
         <v>1</v>
       </c>
       <c r="D356" t="n">
-        <v>54454.54</v>
+        <v>2178181.66</v>
       </c>
     </row>
     <row r="357">
@@ -7871,7 +7871,7 @@
         <v>1</v>
       </c>
       <c r="D357" t="n">
-        <v>53793.9</v>
+        <v>2151755.93</v>
       </c>
     </row>
     <row r="358">
@@ -7889,7 +7889,7 @@
         <v>1</v>
       </c>
       <c r="D358" t="n">
-        <v>183151.06</v>
+        <v>7326042.26</v>
       </c>
     </row>
     <row r="359">
@@ -7907,7 +7907,7 @@
         <v>1</v>
       </c>
       <c r="D359" t="n">
-        <v>95744.63</v>
+        <v>3829785.3</v>
       </c>
     </row>
     <row r="360">
@@ -7925,7 +7925,7 @@
         <v>1</v>
       </c>
       <c r="D360" t="n">
-        <v>198582.83</v>
+        <v>7943313.01</v>
       </c>
     </row>
     <row r="361">
@@ -7943,7 +7943,7 @@
         <v>1</v>
       </c>
       <c r="D361" t="n">
-        <v>157028.29</v>
+        <v>6281131.74</v>
       </c>
     </row>
     <row r="362">
@@ -7961,7 +7961,7 @@
         <v>1</v>
       </c>
       <c r="D362" t="n">
-        <v>94193.16</v>
+        <v>3767726.51</v>
       </c>
     </row>
     <row r="363">
@@ -7979,7 +7979,7 @@
         <v>1</v>
       </c>
       <c r="D363" t="n">
-        <v>45273.67</v>
+        <v>1810946.8</v>
       </c>
     </row>
     <row r="364">
@@ -7997,7 +7997,7 @@
         <v>1</v>
       </c>
       <c r="D364" t="n">
-        <v>244854.19</v>
+        <v>9794167.73</v>
       </c>
     </row>
     <row r="365">
@@ -8015,7 +8015,7 @@
         <v>1</v>
       </c>
       <c r="D365" t="n">
-        <v>123355.82</v>
+        <v>4934232.95</v>
       </c>
     </row>
     <row r="366">
@@ -8033,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="D366" t="n">
-        <v>73631.03999999999</v>
+        <v>2945241.64</v>
       </c>
     </row>
     <row r="367">
@@ -8051,7 +8051,7 @@
         <v>1</v>
       </c>
       <c r="D367" t="n">
-        <v>66978.81</v>
+        <v>2679152.55</v>
       </c>
     </row>
     <row r="368">
@@ -8069,7 +8069,7 @@
         <v>1</v>
       </c>
       <c r="D368" t="n">
-        <v>27796.8</v>
+        <v>1111872.03</v>
       </c>
     </row>
     <row r="369">
@@ -8087,7 +8087,7 @@
         <v>1</v>
       </c>
       <c r="D369" t="n">
-        <v>26330.89</v>
+        <v>1053235.53</v>
       </c>
     </row>
     <row r="370">
@@ -8105,7 +8105,7 @@
         <v>1</v>
       </c>
       <c r="D370" t="n">
-        <v>155291.27</v>
+        <v>6211650.75</v>
       </c>
     </row>
     <row r="371">
@@ -8123,7 +8123,7 @@
         <v>1</v>
       </c>
       <c r="D371" t="n">
-        <v>150459.44</v>
+        <v>6018377.43</v>
       </c>
     </row>
     <row r="372">
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="D372" t="n">
-        <v>62819.08</v>
+        <v>2512763.01</v>
       </c>
     </row>
     <row r="373">
@@ -8159,7 +8159,7 @@
         <v>1</v>
       </c>
       <c r="D373" t="n">
-        <v>211146.35</v>
+        <v>8445854.16</v>
       </c>
     </row>
     <row r="374">
@@ -8177,7 +8177,7 @@
         <v>1</v>
       </c>
       <c r="D374" t="n">
-        <v>224770.36</v>
+        <v>8990814.43</v>
       </c>
     </row>
     <row r="375">
@@ -8195,7 +8195,7 @@
         <v>1</v>
       </c>
       <c r="D375" t="n">
-        <v>49510.82</v>
+        <v>1980432.84</v>
       </c>
     </row>
     <row r="376">
@@ -8213,7 +8213,7 @@
         <v>1</v>
       </c>
       <c r="D376" t="n">
-        <v>48217.48</v>
+        <v>1928699.23</v>
       </c>
     </row>
     <row r="377">
@@ -8231,7 +8231,7 @@
         <v>1</v>
       </c>
       <c r="D377" t="n">
-        <v>183975.73</v>
+        <v>7359029.22</v>
       </c>
     </row>
     <row r="378">
@@ -8249,7 +8249,7 @@
         <v>1</v>
       </c>
       <c r="D378" t="n">
-        <v>174280.23</v>
+        <v>6971209</v>
       </c>
     </row>
     <row r="379">
@@ -8285,7 +8285,7 @@
         <v>1</v>
       </c>
       <c r="D380" t="n">
-        <v>131897.19</v>
+        <v>5275887.68</v>
       </c>
     </row>
     <row r="381">
@@ -8303,7 +8303,7 @@
         <v>1</v>
       </c>
       <c r="D381" t="n">
-        <v>73631.03999999999</v>
+        <v>2945241.64</v>
       </c>
     </row>
     <row r="382">
@@ -8321,7 +8321,7 @@
         <v>1</v>
       </c>
       <c r="D382" t="n">
-        <v>66978.81</v>
+        <v>2679152.55</v>
       </c>
     </row>
     <row r="383">
@@ -8339,7 +8339,7 @@
         <v>1</v>
       </c>
       <c r="D383" t="n">
-        <v>184093.38</v>
+        <v>7363735.16</v>
       </c>
     </row>
     <row r="384">
@@ -8357,7 +8357,7 @@
         <v>1</v>
       </c>
       <c r="D384" t="n">
-        <v>174874.37</v>
+        <v>6994974.98</v>
       </c>
     </row>
     <row r="385">
@@ -8375,7 +8375,7 @@
         <v>1</v>
       </c>
       <c r="D385" t="n">
-        <v>138060.06</v>
+        <v>5522402.35</v>
       </c>
     </row>
     <row r="386">
@@ -8393,7 +8393,7 @@
         <v>1</v>
       </c>
       <c r="D386" t="n">
-        <v>25252.19</v>
+        <v>1010087.42</v>
       </c>
     </row>
     <row r="387">
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="D387" t="n">
-        <v>89469.64999999999</v>
+        <v>3578786.07</v>
       </c>
     </row>
     <row r="388">
@@ -8429,7 +8429,7 @@
         <v>1</v>
       </c>
       <c r="D388" t="n">
-        <v>79039.07000000001</v>
+        <v>3161562.69</v>
       </c>
     </row>
     <row r="389">
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="D389" t="n">
-        <v>82998.97</v>
+        <v>3319958.97</v>
       </c>
     </row>
     <row r="390">
@@ -8465,7 +8465,7 @@
         <v>1</v>
       </c>
       <c r="D390" t="n">
-        <v>125672.94</v>
+        <v>5026917.4</v>
       </c>
     </row>
     <row r="391">
@@ -8483,7 +8483,7 @@
         <v>1</v>
       </c>
       <c r="D391" t="n">
-        <v>202827.23</v>
+        <v>8113089.35</v>
       </c>
     </row>
     <row r="392">
@@ -8501,7 +8501,7 @@
         <v>1</v>
       </c>
       <c r="D392" t="n">
-        <v>131897.19</v>
+        <v>5275887.68</v>
       </c>
     </row>
     <row r="393">
@@ -8519,7 +8519,7 @@
         <v>1</v>
       </c>
       <c r="D393" t="n">
-        <v>66978.81</v>
+        <v>2679152.55</v>
       </c>
     </row>
     <row r="394">
@@ -8537,7 +8537,7 @@
         <v>1</v>
       </c>
       <c r="D394" t="n">
-        <v>74172.44</v>
+        <v>2966897.67</v>
       </c>
     </row>
     <row r="395">
@@ -8555,7 +8555,7 @@
         <v>1</v>
       </c>
       <c r="D395" t="n">
-        <v>187183.59</v>
+        <v>7487343.55</v>
       </c>
     </row>
     <row r="396">
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="D396" t="n">
-        <v>107198.52</v>
+        <v>4287940.92</v>
       </c>
     </row>
     <row r="397">
@@ -8591,7 +8591,7 @@
         <v>1</v>
       </c>
       <c r="D397" t="n">
-        <v>110513.1</v>
+        <v>4420524.16</v>
       </c>
     </row>
     <row r="398">
@@ -8609,7 +8609,7 @@
         <v>1</v>
       </c>
       <c r="D398" t="n">
-        <v>229353.88</v>
+        <v>9174155.050000001</v>
       </c>
     </row>
     <row r="399">
@@ -8627,7 +8627,7 @@
         <v>1</v>
       </c>
       <c r="D399" t="n">
-        <v>195271.39</v>
+        <v>7810855.59</v>
       </c>
     </row>
     <row r="400">
@@ -8645,7 +8645,7 @@
         <v>1</v>
       </c>
       <c r="D400" t="n">
-        <v>138569.09</v>
+        <v>5542763.59</v>
       </c>
     </row>
     <row r="401">
@@ -8663,7 +8663,7 @@
         <v>1</v>
       </c>
       <c r="D401" t="n">
-        <v>249713.09</v>
+        <v>9988523.77</v>
       </c>
     </row>
     <row r="402">
@@ -8681,7 +8681,7 @@
         <v>1</v>
       </c>
       <c r="D402" t="n">
-        <v>233679.09</v>
+        <v>9347163.43</v>
       </c>
     </row>
     <row r="403">
@@ -8699,7 +8699,7 @@
         <v>1</v>
       </c>
       <c r="D403" t="n">
-        <v>173428.24</v>
+        <v>6937129.63</v>
       </c>
     </row>
     <row r="404">
@@ -8717,7 +8717,7 @@
         <v>1</v>
       </c>
       <c r="D404" t="n">
-        <v>86333.28999999999</v>
+        <v>3453331.42</v>
       </c>
     </row>
     <row r="405">
@@ -8735,7 +8735,7 @@
         <v>1</v>
       </c>
       <c r="D405" t="n">
-        <v>242709.29</v>
+        <v>9708371.74</v>
       </c>
     </row>
     <row r="406">
@@ -8753,7 +8753,7 @@
         <v>1</v>
       </c>
       <c r="D406" t="n">
-        <v>244854.19</v>
+        <v>9794167.73</v>
       </c>
     </row>
     <row r="407">
@@ -8771,7 +8771,7 @@
         <v>1</v>
       </c>
       <c r="D407" t="n">
-        <v>131897.19</v>
+        <v>5275887.68</v>
       </c>
     </row>
     <row r="408">
@@ -8807,7 +8807,7 @@
         <v>1</v>
       </c>
       <c r="D409" t="n">
-        <v>74172.44</v>
+        <v>2966897.67</v>
       </c>
     </row>
     <row r="410">
@@ -8825,7 +8825,7 @@
         <v>1</v>
       </c>
       <c r="D410" t="n">
-        <v>187183.59</v>
+        <v>7487343.55</v>
       </c>
     </row>
     <row r="411">
@@ -8843,7 +8843,7 @@
         <v>1</v>
       </c>
       <c r="D411" t="n">
-        <v>253859.57</v>
+        <v>10154382.78</v>
       </c>
     </row>
     <row r="412">
@@ -8861,7 +8861,7 @@
         <v>1</v>
       </c>
       <c r="D412" t="n">
-        <v>214219.29</v>
+        <v>8568771.73</v>
       </c>
     </row>
     <row r="413">
@@ -8879,7 +8879,7 @@
         <v>1</v>
       </c>
       <c r="D413" t="n">
-        <v>233950.53</v>
+        <v>9358021.16</v>
       </c>
     </row>
     <row r="414">
@@ -8897,7 +8897,7 @@
         <v>1</v>
       </c>
       <c r="D414" t="n">
-        <v>106653.4</v>
+        <v>4266135.95</v>
       </c>
     </row>
     <row r="415">
@@ -8915,7 +8915,7 @@
         <v>1</v>
       </c>
       <c r="D415" t="n">
-        <v>152626.96</v>
+        <v>6105078.27</v>
       </c>
     </row>
     <row r="416">
@@ -8933,7 +8933,7 @@
         <v>1</v>
       </c>
       <c r="D416" t="n">
-        <v>55505.13</v>
+        <v>2220205.35</v>
       </c>
     </row>
     <row r="417">
@@ -8951,7 +8951,7 @@
         <v>1</v>
       </c>
       <c r="D417" t="n">
-        <v>88383.49000000001</v>
+        <v>3535339.47</v>
       </c>
     </row>
     <row r="418">
@@ -8969,7 +8969,7 @@
         <v>1</v>
       </c>
       <c r="D418" t="n">
-        <v>154589.7</v>
+        <v>6183587.84</v>
       </c>
     </row>
     <row r="419">
@@ -8987,7 +8987,7 @@
         <v>1</v>
       </c>
       <c r="D419" t="n">
-        <v>250697.74</v>
+        <v>10027909.72</v>
       </c>
     </row>
     <row r="420">
@@ -9023,7 +9023,7 @@
         <v>1</v>
       </c>
       <c r="D421" t="n">
-        <v>187183.59</v>
+        <v>7487343.55</v>
       </c>
     </row>
     <row r="422">
@@ -9059,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="D423" t="n">
-        <v>116066.53</v>
+        <v>4642661</v>
       </c>
     </row>
     <row r="424">
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="D424" t="n">
-        <v>60305.08</v>
+        <v>2412203.19</v>
       </c>
     </row>
     <row r="425">
@@ -9095,7 +9095,7 @@
         <v>1</v>
       </c>
       <c r="D425" t="n">
-        <v>64237.01</v>
+        <v>2569480.43</v>
       </c>
     </row>
     <row r="426">
@@ -9113,7 +9113,7 @@
         <v>1</v>
       </c>
       <c r="D426" t="n">
-        <v>158393.31</v>
+        <v>6335732.26</v>
       </c>
     </row>
     <row r="427">
@@ -9131,7 +9131,7 @@
         <v>1</v>
       </c>
       <c r="D427" t="n">
-        <v>130732.83</v>
+        <v>5229313.04</v>
       </c>
     </row>
     <row r="428">
@@ -9149,7 +9149,7 @@
         <v>1</v>
       </c>
       <c r="D428" t="n">
-        <v>64396.65</v>
+        <v>2575865.92</v>
       </c>
     </row>
     <row r="429">
@@ -9167,7 +9167,7 @@
         <v>1</v>
       </c>
       <c r="D429" t="n">
-        <v>190043.33</v>
+        <v>7601733.23</v>
       </c>
     </row>
     <row r="430">
@@ -9185,7 +9185,7 @@
         <v>1</v>
       </c>
       <c r="D430" t="n">
-        <v>186324.38</v>
+        <v>7452975.17</v>
       </c>
     </row>
     <row r="431">
@@ -9203,7 +9203,7 @@
         <v>1</v>
       </c>
       <c r="D431" t="n">
-        <v>104450.44</v>
+        <v>4178017.49</v>
       </c>
     </row>
     <row r="432">
@@ -9221,7 +9221,7 @@
         <v>1</v>
       </c>
       <c r="D432" t="n">
-        <v>28135.8</v>
+        <v>1125431.99</v>
       </c>
     </row>
     <row r="433">
@@ -9239,7 +9239,7 @@
         <v>1</v>
       </c>
       <c r="D433" t="n">
-        <v>175984.8</v>
+        <v>7039392.17</v>
       </c>
     </row>
     <row r="434">
@@ -9257,7 +9257,7 @@
         <v>1</v>
       </c>
       <c r="D434" t="n">
-        <v>175081.47</v>
+        <v>7003258.85</v>
       </c>
     </row>
     <row r="435">
@@ -9275,7 +9275,7 @@
         <v>1</v>
       </c>
       <c r="D435" t="n">
-        <v>73631.03999999999</v>
+        <v>2945241.64</v>
       </c>
     </row>
     <row r="436">
@@ -9293,7 +9293,7 @@
         <v>1</v>
       </c>
       <c r="D436" t="n">
-        <v>74172.44</v>
+        <v>2966897.67</v>
       </c>
     </row>
     <row r="437">
@@ -9329,7 +9329,7 @@
         <v>1</v>
       </c>
       <c r="D438" t="n">
-        <v>116066.53</v>
+        <v>4642661</v>
       </c>
     </row>
     <row r="439">
@@ -9347,7 +9347,7 @@
         <v>1</v>
       </c>
       <c r="D439" t="n">
-        <v>184512.75</v>
+        <v>7380509.87</v>
       </c>
     </row>
     <row r="440">
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="D440" t="n">
-        <v>152695.82</v>
+        <v>6107832.81</v>
       </c>
     </row>
     <row r="441">
@@ -9383,7 +9383,7 @@
         <v>1</v>
       </c>
       <c r="D441" t="n">
-        <v>160041.19</v>
+        <v>6401647.58</v>
       </c>
     </row>
     <row r="442">
@@ -9401,7 +9401,7 @@
         <v>1</v>
       </c>
       <c r="D442" t="n">
-        <v>52763.16</v>
+        <v>2110526.3</v>
       </c>
     </row>
     <row r="443">
@@ -9419,7 +9419,7 @@
         <v>1</v>
       </c>
       <c r="D443" t="n">
-        <v>80215.91</v>
+        <v>3208636.2</v>
       </c>
     </row>
     <row r="444">
@@ -9437,7 +9437,7 @@
         <v>1</v>
       </c>
       <c r="D444" t="n">
-        <v>23727.91</v>
+        <v>949116.25</v>
       </c>
     </row>
     <row r="445">
@@ -9455,7 +9455,7 @@
         <v>1</v>
       </c>
       <c r="D445" t="n">
-        <v>21560.32</v>
+        <v>862412.7</v>
       </c>
     </row>
     <row r="446">
@@ -9473,7 +9473,7 @@
         <v>1</v>
       </c>
       <c r="D446" t="n">
-        <v>92443.45</v>
+        <v>3697737.95</v>
       </c>
     </row>
     <row r="447">
@@ -9491,7 +9491,7 @@
         <v>1</v>
       </c>
       <c r="D447" t="n">
-        <v>187695.24</v>
+        <v>7507809.67</v>
       </c>
     </row>
     <row r="448">
@@ -9509,7 +9509,7 @@
         <v>1</v>
       </c>
       <c r="D448" t="n">
-        <v>74172.44</v>
+        <v>2966897.67</v>
       </c>
     </row>
     <row r="449">
@@ -9527,7 +9527,7 @@
         <v>1</v>
       </c>
       <c r="D449" t="n">
-        <v>116066.53</v>
+        <v>4642661</v>
       </c>
     </row>
     <row r="450">
@@ -9545,7 +9545,7 @@
         <v>1</v>
       </c>
       <c r="D450" t="n">
-        <v>116066.53</v>
+        <v>4642661</v>
       </c>
     </row>
     <row r="451">
@@ -9581,7 +9581,7 @@
         <v>1</v>
       </c>
       <c r="D452" t="n">
-        <v>93864.49000000001</v>
+        <v>3754579.78</v>
       </c>
     </row>
     <row r="453">
@@ -9599,7 +9599,7 @@
         <v>1</v>
       </c>
       <c r="D453" t="n">
-        <v>93041.28</v>
+        <v>3721651.02</v>
       </c>
     </row>
     <row r="454">
@@ -9617,7 +9617,7 @@
         <v>1</v>
       </c>
       <c r="D454" t="n">
-        <v>105038.14</v>
+        <v>4201525.62</v>
       </c>
     </row>
     <row r="455">
@@ -9635,7 +9635,7 @@
         <v>1</v>
       </c>
       <c r="D455" t="n">
-        <v>119975.3</v>
+        <v>4799011.88</v>
       </c>
     </row>
     <row r="456">
@@ -9653,7 +9653,7 @@
         <v>1</v>
       </c>
       <c r="D456" t="n">
-        <v>60581.89</v>
+        <v>2423275.48</v>
       </c>
     </row>
     <row r="457">
@@ -9671,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="D457" t="n">
-        <v>173275.19</v>
+        <v>6931007.68</v>
       </c>
     </row>
     <row r="458">
@@ -9689,7 +9689,7 @@
         <v>1</v>
       </c>
       <c r="D458" t="n">
-        <v>201060.5</v>
+        <v>8042419.81</v>
       </c>
     </row>
     <row r="459">
@@ -9707,7 +9707,7 @@
         <v>1</v>
       </c>
       <c r="D459" t="n">
-        <v>17805.5</v>
+        <v>712219.83</v>
       </c>
     </row>
     <row r="460">
@@ -9725,7 +9725,7 @@
         <v>1</v>
       </c>
       <c r="D460" t="n">
-        <v>101545.25</v>
+        <v>4061810.17</v>
       </c>
     </row>
     <row r="461">
@@ -9743,7 +9743,7 @@
         <v>1</v>
       </c>
       <c r="D461" t="n">
-        <v>138482.99</v>
+        <v>5539319.77</v>
       </c>
     </row>
     <row r="462">
@@ -9761,7 +9761,7 @@
         <v>1</v>
       </c>
       <c r="D462" t="n">
-        <v>123355.82</v>
+        <v>4934232.95</v>
       </c>
     </row>
     <row r="463">
@@ -9779,7 +9779,7 @@
         <v>1</v>
       </c>
       <c r="D463" t="n">
-        <v>66978.81</v>
+        <v>2679152.55</v>
       </c>
     </row>
     <row r="464">
@@ -9797,7 +9797,7 @@
         <v>1</v>
       </c>
       <c r="D464" t="n">
-        <v>187183.59</v>
+        <v>7487343.55</v>
       </c>
     </row>
     <row r="465">
@@ -9815,7 +9815,7 @@
         <v>1</v>
       </c>
       <c r="D465" t="n">
-        <v>116066.53</v>
+        <v>4642661</v>
       </c>
     </row>
     <row r="466">
@@ -9851,7 +9851,7 @@
         <v>1</v>
       </c>
       <c r="D467" t="n">
-        <v>132457.84</v>
+        <v>5298313.43</v>
       </c>
     </row>
     <row r="468">
@@ -9869,7 +9869,7 @@
         <v>1</v>
       </c>
       <c r="D468" t="n">
-        <v>142196.42</v>
+        <v>5687856.74</v>
       </c>
     </row>
     <row r="469">
@@ -9887,7 +9887,7 @@
         <v>1</v>
       </c>
       <c r="D469" t="n">
-        <v>77171.63</v>
+        <v>3086865.4</v>
       </c>
     </row>
     <row r="470">
@@ -9905,7 +9905,7 @@
         <v>1</v>
       </c>
       <c r="D470" t="n">
-        <v>87717.31</v>
+        <v>3508692.52</v>
       </c>
     </row>
     <row r="471">
@@ -9923,7 +9923,7 @@
         <v>1</v>
       </c>
       <c r="D471" t="n">
-        <v>72905.16</v>
+        <v>2916206.32</v>
       </c>
     </row>
     <row r="472">
@@ -9941,7 +9941,7 @@
         <v>1</v>
       </c>
       <c r="D472" t="n">
-        <v>131679</v>
+        <v>5267159.98</v>
       </c>
     </row>
     <row r="473">
@@ -9959,7 +9959,7 @@
         <v>1</v>
       </c>
       <c r="D473" t="n">
-        <v>112748.05</v>
+        <v>4509921.91</v>
       </c>
     </row>
     <row r="474">
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="D474" t="n">
-        <v>114004.36</v>
+        <v>4560174.34</v>
       </c>
     </row>
     <row r="475">
@@ -9995,7 +9995,7 @@
         <v>1</v>
       </c>
       <c r="D475" t="n">
-        <v>160928.55</v>
+        <v>6437142.2</v>
       </c>
     </row>
     <row r="476">
@@ -10013,7 +10013,7 @@
         <v>1</v>
       </c>
       <c r="D476" t="n">
-        <v>187183.59</v>
+        <v>7487343.55</v>
       </c>
     </row>
     <row r="477">
@@ -10049,7 +10049,7 @@
         <v>1</v>
       </c>
       <c r="D478" t="n">
-        <v>184512.75</v>
+        <v>7380509.87</v>
       </c>
     </row>
     <row r="479">
@@ -10067,7 +10067,7 @@
         <v>1</v>
       </c>
       <c r="D479" t="n">
-        <v>132457.84</v>
+        <v>5298313.43</v>
       </c>
     </row>
     <row r="480">
@@ -10085,7 +10085,7 @@
         <v>1</v>
       </c>
       <c r="D480" t="n">
-        <v>203130.54</v>
+        <v>8125221.54</v>
       </c>
     </row>
     <row r="481">
@@ -10103,7 +10103,7 @@
         <v>1</v>
       </c>
       <c r="D481" t="n">
-        <v>204412.16</v>
+        <v>8176486.27</v>
       </c>
     </row>
     <row r="482">
@@ -10121,7 +10121,7 @@
         <v>1</v>
       </c>
       <c r="D482" t="n">
-        <v>28802.16</v>
+        <v>1152086.29</v>
       </c>
     </row>
     <row r="483">
@@ -10139,7 +10139,7 @@
         <v>1</v>
       </c>
       <c r="D483" t="n">
-        <v>63102.98</v>
+        <v>2524119.15</v>
       </c>
     </row>
     <row r="484">
@@ -10157,7 +10157,7 @@
         <v>1</v>
       </c>
       <c r="D484" t="n">
-        <v>128732.23</v>
+        <v>5149289.39</v>
       </c>
     </row>
     <row r="485">
@@ -10175,7 +10175,7 @@
         <v>1</v>
       </c>
       <c r="D485" t="n">
-        <v>59075.79</v>
+        <v>2363031.62</v>
       </c>
     </row>
     <row r="486">
@@ -10193,7 +10193,7 @@
         <v>1</v>
       </c>
       <c r="D486" t="n">
-        <v>108576.16</v>
+        <v>4343046.22</v>
       </c>
     </row>
     <row r="487">
@@ -10211,7 +10211,7 @@
         <v>1</v>
       </c>
       <c r="D487" t="n">
-        <v>146817.76</v>
+        <v>5872710.28</v>
       </c>
     </row>
     <row r="488">
@@ -10229,7 +10229,7 @@
         <v>1</v>
       </c>
       <c r="D488" t="n">
-        <v>190657.58</v>
+        <v>7626303.19</v>
       </c>
     </row>
     <row r="489">
@@ -10247,7 +10247,7 @@
         <v>1</v>
       </c>
       <c r="D489" t="n">
-        <v>21273.32</v>
+        <v>850932.74</v>
       </c>
     </row>
     <row r="490">
@@ -10265,7 +10265,7 @@
         <v>1</v>
       </c>
       <c r="D490" t="n">
-        <v>9875.639999999999</v>
+        <v>395025.47</v>
       </c>
     </row>
     <row r="491">
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="D491" t="n">
-        <v>184093.38</v>
+        <v>7363735.16</v>
       </c>
     </row>
     <row r="492">
@@ -10301,7 +10301,7 @@
         <v>1</v>
       </c>
       <c r="D492" t="n">
-        <v>253859.57</v>
+        <v>10154382.78</v>
       </c>
     </row>
     <row r="493">
@@ -10319,7 +10319,7 @@
         <v>1</v>
       </c>
       <c r="D493" t="n">
-        <v>184512.75</v>
+        <v>7380509.87</v>
       </c>
     </row>
     <row r="494">
@@ -10337,7 +10337,7 @@
         <v>1</v>
       </c>
       <c r="D494" t="n">
-        <v>132457.84</v>
+        <v>5298313.43</v>
       </c>
     </row>
     <row r="495">
@@ -10373,7 +10373,7 @@
         <v>1</v>
       </c>
       <c r="D496" t="n">
-        <v>57797.77</v>
+        <v>2311910.64</v>
       </c>
     </row>
     <row r="497">
@@ -10391,7 +10391,7 @@
         <v>1</v>
       </c>
       <c r="D497" t="n">
-        <v>60916.16</v>
+        <v>2436646.36</v>
       </c>
     </row>
     <row r="498">
@@ -10409,7 +10409,7 @@
         <v>1</v>
       </c>
       <c r="D498" t="n">
-        <v>193025.36</v>
+        <v>7721014.39</v>
       </c>
     </row>
     <row r="499">
@@ -10427,7 +10427,7 @@
         <v>1</v>
       </c>
       <c r="D499" t="n">
-        <v>105408.52</v>
+        <v>4216340.93</v>
       </c>
     </row>
     <row r="500">
@@ -10445,7 +10445,7 @@
         <v>1</v>
       </c>
       <c r="D500" t="n">
-        <v>208060.34</v>
+        <v>8322413.8</v>
       </c>
     </row>
     <row r="501">
@@ -10463,7 +10463,7 @@
         <v>1</v>
       </c>
       <c r="D501" t="n">
-        <v>166237.95</v>
+        <v>6649518.01</v>
       </c>
     </row>
     <row r="502">
@@ -10481,7 +10481,7 @@
         <v>1</v>
       </c>
       <c r="D502" t="n">
-        <v>102175.37</v>
+        <v>4087014.96</v>
       </c>
     </row>
     <row r="503">
@@ -10499,7 +10499,7 @@
         <v>1</v>
       </c>
       <c r="D503" t="n">
-        <v>41743.8</v>
+        <v>1669752.12</v>
       </c>
     </row>
     <row r="504">
@@ -10517,7 +10517,7 @@
         <v>1</v>
       </c>
       <c r="D504" t="n">
-        <v>253859.57</v>
+        <v>10154382.78</v>
       </c>
     </row>
     <row r="505">
@@ -10535,7 +10535,7 @@
         <v>1</v>
       </c>
       <c r="D505" t="n">
-        <v>132457.84</v>
+        <v>5298313.43</v>
       </c>
     </row>
     <row r="506">
@@ -10553,7 +10553,7 @@
         <v>1</v>
       </c>
       <c r="D506" t="n">
-        <v>152695.82</v>
+        <v>6107832.81</v>
       </c>
     </row>
     <row r="507">
@@ -10571,7 +10571,7 @@
         <v>1</v>
       </c>
       <c r="D507" t="n">
-        <v>142196.42</v>
+        <v>5687856.74</v>
       </c>
     </row>
     <row r="508">
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="D508" t="n">
-        <v>187001.09</v>
+        <v>7480043.45</v>
       </c>
     </row>
     <row r="509">
@@ -10607,7 +10607,7 @@
         <v>1</v>
       </c>
       <c r="D509" t="n">
-        <v>189288.32</v>
+        <v>7571532.89</v>
       </c>
     </row>
     <row r="510">
@@ -10625,7 +10625,7 @@
         <v>1</v>
       </c>
       <c r="D510" t="n">
-        <v>55904.16</v>
+        <v>2236166.43</v>
       </c>
     </row>
     <row r="511">
@@ -10643,7 +10643,7 @@
         <v>1</v>
       </c>
       <c r="D511" t="n">
-        <v>24419.17</v>
+        <v>976766.88</v>
       </c>
     </row>
     <row r="512">
@@ -10661,7 +10661,7 @@
         <v>1</v>
       </c>
       <c r="D512" t="n">
-        <v>112406.45</v>
+        <v>4496258.19</v>
       </c>
     </row>
     <row r="513">
@@ -10679,7 +10679,7 @@
         <v>1</v>
       </c>
       <c r="D513" t="n">
-        <v>37629.48</v>
+        <v>1505179.28</v>
       </c>
     </row>
     <row r="514">
@@ -10697,7 +10697,7 @@
         <v>1</v>
       </c>
       <c r="D514" t="n">
-        <v>61408.28</v>
+        <v>2456331.24</v>
       </c>
     </row>
     <row r="515">
@@ -10715,7 +10715,7 @@
         <v>1</v>
       </c>
       <c r="D515" t="n">
-        <v>151261.16</v>
+        <v>6050446.44</v>
       </c>
     </row>
     <row r="516">
@@ -10733,7 +10733,7 @@
         <v>1</v>
       </c>
       <c r="D516" t="n">
-        <v>166520.18</v>
+        <v>6660807.28</v>
       </c>
     </row>
     <row r="517">
@@ -10751,7 +10751,7 @@
         <v>1</v>
       </c>
       <c r="D517" t="n">
-        <v>37591.29</v>
+        <v>1503651.55</v>
       </c>
     </row>
     <row r="518">
@@ -10769,7 +10769,7 @@
         <v>1</v>
       </c>
       <c r="D518" t="n">
-        <v>54454.54</v>
+        <v>2178181.66</v>
       </c>
     </row>
     <row r="519">
@@ -10787,7 +10787,7 @@
         <v>1</v>
       </c>
       <c r="D519" t="n">
-        <v>174874.37</v>
+        <v>6994974.98</v>
       </c>
     </row>
     <row r="520">
@@ -10805,7 +10805,7 @@
         <v>1</v>
       </c>
       <c r="D520" t="n">
-        <v>214219.29</v>
+        <v>8568771.73</v>
       </c>
     </row>
     <row r="521">
@@ -10823,7 +10823,7 @@
         <v>1</v>
       </c>
       <c r="D521" t="n">
-        <v>152695.82</v>
+        <v>6107832.81</v>
       </c>
     </row>
     <row r="522">
@@ -10841,7 +10841,7 @@
         <v>1</v>
       </c>
       <c r="D522" t="n">
-        <v>142196.42</v>
+        <v>5687856.74</v>
       </c>
     </row>
     <row r="523">
@@ -10859,7 +10859,7 @@
         <v>1</v>
       </c>
       <c r="D523" t="n">
-        <v>57797.77</v>
+        <v>2311910.64</v>
       </c>
     </row>
     <row r="524">
@@ -10895,7 +10895,7 @@
         <v>1</v>
       </c>
       <c r="D525" t="n">
-        <v>94862.66</v>
+        <v>3794506.4</v>
       </c>
     </row>
     <row r="526">
@@ -10913,7 +10913,7 @@
         <v>1</v>
       </c>
       <c r="D526" t="n">
-        <v>176148.8</v>
+        <v>7045952.13</v>
       </c>
     </row>
     <row r="527">
@@ -10931,7 +10931,7 @@
         <v>1</v>
       </c>
       <c r="D527" t="n">
-        <v>85585.16</v>
+        <v>3423406.34</v>
       </c>
     </row>
     <row r="528">
@@ -10949,7 +10949,7 @@
         <v>1</v>
       </c>
       <c r="D528" t="n">
-        <v>176168.7</v>
+        <v>7046748.06</v>
       </c>
     </row>
     <row r="529">
@@ -10967,7 +10967,7 @@
         <v>1</v>
       </c>
       <c r="D529" t="n">
-        <v>131846.27</v>
+        <v>5273850.98</v>
       </c>
     </row>
     <row r="530">
@@ -10985,7 +10985,7 @@
         <v>1</v>
       </c>
       <c r="D530" t="n">
-        <v>60572.32</v>
+        <v>2422892.96</v>
       </c>
     </row>
     <row r="531">
@@ -11003,7 +11003,7 @@
         <v>1</v>
       </c>
       <c r="D531" t="n">
-        <v>36652.36</v>
+        <v>1466094.41</v>
       </c>
     </row>
     <row r="532">
@@ -11021,7 +11021,7 @@
         <v>1</v>
       </c>
       <c r="D532" t="n">
-        <v>214219.29</v>
+        <v>8568771.73</v>
       </c>
     </row>
     <row r="533">
@@ -11039,7 +11039,7 @@
         <v>1</v>
       </c>
       <c r="D533" t="n">
-        <v>142196.42</v>
+        <v>5687856.74</v>
       </c>
     </row>
     <row r="534">
@@ -11057,7 +11057,7 @@
         <v>1</v>
       </c>
       <c r="D534" t="n">
-        <v>160041.19</v>
+        <v>6401647.58</v>
       </c>
     </row>
     <row r="535">
@@ -11075,7 +11075,7 @@
         <v>1</v>
       </c>
       <c r="D535" t="n">
-        <v>77171.63</v>
+        <v>3086865.4</v>
       </c>
     </row>
     <row r="536">
@@ -11093,7 +11093,7 @@
         <v>1</v>
       </c>
       <c r="D536" t="n">
-        <v>161507.93</v>
+        <v>6460317.15</v>
       </c>
     </row>
     <row r="537">
@@ -11111,7 +11111,7 @@
         <v>1</v>
       </c>
       <c r="D537" t="n">
-        <v>161846.72</v>
+        <v>6473868.99</v>
       </c>
     </row>
     <row r="538">
@@ -11129,7 +11129,7 @@
         <v>1</v>
       </c>
       <c r="D538" t="n">
-        <v>40536.21</v>
+        <v>1621448.56</v>
       </c>
     </row>
     <row r="539">
@@ -11147,7 +11147,7 @@
         <v>1</v>
       </c>
       <c r="D539" t="n">
-        <v>82428.39999999999</v>
+        <v>3297135.87</v>
       </c>
     </row>
     <row r="540">
@@ -11165,7 +11165,7 @@
         <v>1</v>
       </c>
       <c r="D540" t="n">
-        <v>96201.03</v>
+        <v>3848041.24</v>
       </c>
     </row>
     <row r="541">
@@ -11183,7 +11183,7 @@
         <v>1</v>
       </c>
       <c r="D541" t="n">
-        <v>113992.21</v>
+        <v>4559688.47</v>
       </c>
     </row>
     <row r="542">
@@ -11201,7 +11201,7 @@
         <v>1</v>
       </c>
       <c r="D542" t="n">
-        <v>155624.98</v>
+        <v>6224999.17</v>
       </c>
     </row>
     <row r="543">
@@ -11219,7 +11219,7 @@
         <v>1</v>
       </c>
       <c r="D543" t="n">
-        <v>93725.8</v>
+        <v>3749032.01</v>
       </c>
     </row>
     <row r="544">
@@ -11237,7 +11237,7 @@
         <v>1</v>
       </c>
       <c r="D544" t="n">
-        <v>157456.05</v>
+        <v>6298241.98</v>
       </c>
     </row>
     <row r="545">
@@ -11255,7 +11255,7 @@
         <v>1</v>
       </c>
       <c r="D545" t="n">
-        <v>74052.64</v>
+        <v>2962105.49</v>
       </c>
     </row>
     <row r="546">
@@ -11273,7 +11273,7 @@
         <v>1</v>
       </c>
       <c r="D546" t="n">
-        <v>53793.9</v>
+        <v>2151755.93</v>
       </c>
     </row>
     <row r="547">
@@ -11291,7 +11291,7 @@
         <v>1</v>
       </c>
       <c r="D547" t="n">
-        <v>138060.06</v>
+        <v>5522402.35</v>
       </c>
     </row>
     <row r="548">
@@ -11309,7 +11309,7 @@
         <v>1</v>
       </c>
       <c r="D548" t="n">
-        <v>233950.53</v>
+        <v>9358021.16</v>
       </c>
     </row>
     <row r="549">
@@ -11327,7 +11327,7 @@
         <v>1</v>
       </c>
       <c r="D549" t="n">
-        <v>160041.19</v>
+        <v>6401647.58</v>
       </c>
     </row>
     <row r="550">
@@ -11345,7 +11345,7 @@
         <v>1</v>
       </c>
       <c r="D550" t="n">
-        <v>77171.63</v>
+        <v>3086865.4</v>
       </c>
     </row>
     <row r="551">
@@ -11363,7 +11363,7 @@
         <v>1</v>
       </c>
       <c r="D551" t="n">
-        <v>60916.16</v>
+        <v>2436646.36</v>
       </c>
     </row>
     <row r="552">
@@ -11381,7 +11381,7 @@
         <v>1</v>
       </c>
       <c r="D552" t="n">
-        <v>94862.66</v>
+        <v>3794506.4</v>
       </c>
     </row>
     <row r="553">
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="D554" t="n">
-        <v>152768.58</v>
+        <v>6110743.06</v>
       </c>
     </row>
     <row r="555">
@@ -11435,7 +11435,7 @@
         <v>1</v>
       </c>
       <c r="D555" t="n">
-        <v>82988.62</v>
+        <v>3319544.66</v>
       </c>
     </row>
     <row r="556">
@@ -11453,7 +11453,7 @@
         <v>1</v>
       </c>
       <c r="D556" t="n">
-        <v>181632.38</v>
+        <v>7265295.14</v>
       </c>
     </row>
     <row r="557">
@@ -11471,7 +11471,7 @@
         <v>1</v>
       </c>
       <c r="D557" t="n">
-        <v>146776.62</v>
+        <v>5871064.71</v>
       </c>
     </row>
     <row r="558">
@@ -11489,7 +11489,7 @@
         <v>1</v>
       </c>
       <c r="D558" t="n">
-        <v>104468.15</v>
+        <v>4178725.91</v>
       </c>
     </row>
     <row r="559">
@@ -11507,7 +11507,7 @@
         <v>1</v>
       </c>
       <c r="D559" t="n">
-        <v>98144.33</v>
+        <v>3925773.14</v>
       </c>
     </row>
     <row r="560">
@@ -11525,7 +11525,7 @@
         <v>1</v>
       </c>
       <c r="D560" t="n">
-        <v>233950.53</v>
+        <v>9358021.16</v>
       </c>
     </row>
     <row r="561">
@@ -11543,7 +11543,7 @@
         <v>1</v>
       </c>
       <c r="D561" t="n">
-        <v>77171.63</v>
+        <v>3086865.4</v>
       </c>
     </row>
     <row r="562">
@@ -11561,7 +11561,7 @@
         <v>1</v>
       </c>
       <c r="D562" t="n">
-        <v>52763.16</v>
+        <v>2110526.3</v>
       </c>
     </row>
     <row r="563">
@@ -11579,7 +11579,7 @@
         <v>1</v>
       </c>
       <c r="D563" t="n">
-        <v>87717.31</v>
+        <v>3508692.52</v>
       </c>
     </row>
     <row r="564">
@@ -11597,7 +11597,7 @@
         <v>1</v>
       </c>
       <c r="D564" t="n">
-        <v>10896.24</v>
+        <v>435849.43</v>
       </c>
     </row>
     <row r="565">
@@ -11615,7 +11615,7 @@
         <v>1</v>
       </c>
       <c r="D565" t="n">
-        <v>13773.47</v>
+        <v>550938.78</v>
       </c>
     </row>
     <row r="566">
@@ -11633,7 +11633,7 @@
         <v>1</v>
       </c>
       <c r="D566" t="n">
-        <v>164482.22</v>
+        <v>6579288.85</v>
       </c>
     </row>
     <row r="567">
@@ -11651,7 +11651,7 @@
         <v>1</v>
       </c>
       <c r="D567" t="n">
-        <v>151956.55</v>
+        <v>6078261.96</v>
       </c>
     </row>
     <row r="568">
@@ -11669,7 +11669,7 @@
         <v>1</v>
       </c>
       <c r="D568" t="n">
-        <v>65173.04</v>
+        <v>2606921.79</v>
       </c>
     </row>
     <row r="569">
@@ -11687,7 +11687,7 @@
         <v>1</v>
       </c>
       <c r="D569" t="n">
-        <v>213417</v>
+        <v>8536679.9</v>
       </c>
     </row>
     <row r="570">
@@ -11705,7 +11705,7 @@
         <v>1</v>
       </c>
       <c r="D570" t="n">
-        <v>221077.64</v>
+        <v>8843105.57</v>
       </c>
     </row>
     <row r="571">
@@ -11723,7 +11723,7 @@
         <v>1</v>
       </c>
       <c r="D571" t="n">
-        <v>71295.63</v>
+        <v>2851825.19</v>
       </c>
     </row>
     <row r="572">
@@ -11741,7 +11741,7 @@
         <v>1</v>
       </c>
       <c r="D572" t="n">
-        <v>25086.62</v>
+        <v>1003464.75</v>
       </c>
     </row>
     <row r="573">
@@ -11759,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="D573" t="n">
-        <v>190182.77</v>
+        <v>7607310.89</v>
       </c>
     </row>
     <row r="574">
@@ -11777,7 +11777,7 @@
         <v>1</v>
       </c>
       <c r="D574" t="n">
-        <v>183151.06</v>
+        <v>7326042.26</v>
       </c>
     </row>
     <row r="575">
@@ -11795,7 +11795,7 @@
         <v>1</v>
       </c>
       <c r="D575" t="n">
-        <v>25252.19</v>
+        <v>1010087.42</v>
       </c>
     </row>
     <row r="576">
@@ -11813,7 +11813,7 @@
         <v>1</v>
       </c>
       <c r="D576" t="n">
-        <v>106653.4</v>
+        <v>4266135.95</v>
       </c>
     </row>
     <row r="577">
@@ -11831,7 +11831,7 @@
         <v>1</v>
       </c>
       <c r="D577" t="n">
-        <v>52763.16</v>
+        <v>2110526.3</v>
       </c>
     </row>
     <row r="578">
@@ -11849,7 +11849,7 @@
         <v>1</v>
       </c>
       <c r="D578" t="n">
-        <v>87717.31</v>
+        <v>3508692.52</v>
       </c>
     </row>
     <row r="579">
@@ -11867,7 +11867,7 @@
         <v>1</v>
       </c>
       <c r="D579" t="n">
-        <v>193025.36</v>
+        <v>7721014.39</v>
       </c>
     </row>
     <row r="580">
@@ -11885,7 +11885,7 @@
         <v>1</v>
       </c>
       <c r="D580" t="n">
-        <v>176148.8</v>
+        <v>7045952.13</v>
       </c>
     </row>
     <row r="581">
@@ -11903,7 +11903,7 @@
         <v>1</v>
       </c>
       <c r="D581" t="n">
-        <v>152768.58</v>
+        <v>6110743.06</v>
       </c>
     </row>
     <row r="582">
@@ -11939,7 +11939,7 @@
         <v>1</v>
       </c>
       <c r="D583" t="n">
-        <v>91350.14999999999</v>
+        <v>3654005.88</v>
       </c>
     </row>
     <row r="584">
@@ -11957,7 +11957,7 @@
         <v>1</v>
       </c>
       <c r="D584" t="n">
-        <v>54445.66</v>
+        <v>2177826.56</v>
       </c>
     </row>
     <row r="585">
@@ -11975,7 +11975,7 @@
         <v>1</v>
       </c>
       <c r="D585" t="n">
-        <v>66616.98</v>
+        <v>2664679.15</v>
       </c>
     </row>
     <row r="586">
@@ -11993,7 +11993,7 @@
         <v>1</v>
       </c>
       <c r="D586" t="n">
-        <v>121639.96</v>
+        <v>4865598.23</v>
       </c>
     </row>
     <row r="587">
@@ -12011,7 +12011,7 @@
         <v>1</v>
       </c>
       <c r="D587" t="n">
-        <v>206991.06</v>
+        <v>8279642.41</v>
       </c>
     </row>
     <row r="588">
@@ -12029,7 +12029,7 @@
         <v>1</v>
       </c>
       <c r="D588" t="n">
-        <v>106653.4</v>
+        <v>4266135.95</v>
       </c>
     </row>
     <row r="589">
@@ -12047,7 +12047,7 @@
         <v>1</v>
       </c>
       <c r="D589" t="n">
-        <v>87717.31</v>
+        <v>3508692.52</v>
       </c>
     </row>
     <row r="590">
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="D590" t="n">
-        <v>80215.91</v>
+        <v>3208636.2</v>
       </c>
     </row>
     <row r="591">
@@ -12083,7 +12083,7 @@
         <v>1</v>
       </c>
       <c r="D591" t="n">
-        <v>72905.16</v>
+        <v>2916206.32</v>
       </c>
     </row>
     <row r="592">
@@ -12101,7 +12101,7 @@
         <v>1</v>
       </c>
       <c r="D592" t="n">
-        <v>102082.07</v>
+        <v>4083282.83</v>
       </c>
     </row>
     <row r="593">
@@ -12119,7 +12119,7 @@
         <v>1</v>
       </c>
       <c r="D593" t="n">
-        <v>104139.32</v>
+        <v>4165572.81</v>
       </c>
     </row>
     <row r="594">
@@ -12137,7 +12137,7 @@
         <v>1</v>
       </c>
       <c r="D594" t="n">
-        <v>78418.69</v>
+        <v>3136747.71</v>
       </c>
     </row>
     <row r="595">
@@ -12155,7 +12155,7 @@
         <v>1</v>
       </c>
       <c r="D595" t="n">
-        <v>61180.52</v>
+        <v>2447220.88</v>
       </c>
     </row>
     <row r="596">
@@ -12173,7 +12173,7 @@
         <v>1</v>
       </c>
       <c r="D596" t="n">
-        <v>26821.44</v>
+        <v>1072857.57</v>
       </c>
     </row>
     <row r="597">
@@ -12191,7 +12191,7 @@
         <v>1</v>
       </c>
       <c r="D597" t="n">
-        <v>122397.85</v>
+        <v>4895914.18</v>
       </c>
     </row>
     <row r="598">
@@ -12209,7 +12209,7 @@
         <v>1</v>
       </c>
       <c r="D598" t="n">
-        <v>136676.15</v>
+        <v>5467045.87</v>
       </c>
     </row>
     <row r="599">
@@ -12227,7 +12227,7 @@
         <v>1</v>
       </c>
       <c r="D599" t="n">
-        <v>74743.17</v>
+        <v>2989726.79</v>
       </c>
     </row>
     <row r="600">
@@ -12245,7 +12245,7 @@
         <v>1</v>
       </c>
       <c r="D600" t="n">
-        <v>85556.48</v>
+        <v>3422259.07</v>
       </c>
     </row>
     <row r="601">
@@ -12263,7 +12263,7 @@
         <v>1</v>
       </c>
       <c r="D601" t="n">
-        <v>99700.42</v>
+        <v>3988016.92</v>
       </c>
     </row>
     <row r="602">
@@ -12281,7 +12281,7 @@
         <v>1</v>
       </c>
       <c r="D602" t="n">
-        <v>95744.63</v>
+        <v>3829785.3</v>
       </c>
     </row>
     <row r="603">
@@ -12299,7 +12299,7 @@
         <v>1</v>
       </c>
       <c r="D603" t="n">
-        <v>89469.64999999999</v>
+        <v>3578786.07</v>
       </c>
     </row>
     <row r="604">
@@ -12317,7 +12317,7 @@
         <v>1</v>
       </c>
       <c r="D604" t="n">
-        <v>152626.96</v>
+        <v>6105078.27</v>
       </c>
     </row>
     <row r="605">
@@ -12335,7 +12335,7 @@
         <v>1</v>
       </c>
       <c r="D605" t="n">
-        <v>80215.91</v>
+        <v>3208636.2</v>
       </c>
     </row>
     <row r="606">
@@ -12353,7 +12353,7 @@
         <v>1</v>
       </c>
       <c r="D606" t="n">
-        <v>72905.16</v>
+        <v>2916206.32</v>
       </c>
     </row>
     <row r="607">
@@ -12371,7 +12371,7 @@
         <v>1</v>
       </c>
       <c r="D607" t="n">
-        <v>105408.52</v>
+        <v>4216340.93</v>
       </c>
     </row>
     <row r="608">
@@ -12389,7 +12389,7 @@
         <v>1</v>
       </c>
       <c r="D608" t="n">
-        <v>85585.16</v>
+        <v>3423406.34</v>
       </c>
     </row>
     <row r="609">
@@ -12407,7 +12407,7 @@
         <v>1</v>
       </c>
       <c r="D609" t="n">
-        <v>82988.62</v>
+        <v>3319544.66</v>
       </c>
     </row>
     <row r="610">
@@ -12425,7 +12425,7 @@
         <v>1</v>
       </c>
       <c r="D610" t="n">
-        <v>91350.14999999999</v>
+        <v>3654005.88</v>
       </c>
     </row>
     <row r="611">
@@ -12461,7 +12461,7 @@
         <v>1</v>
       </c>
       <c r="D612" t="n">
-        <v>103342.21</v>
+        <v>4133688.33</v>
       </c>
     </row>
     <row r="613">
@@ -12479,7 +12479,7 @@
         <v>1</v>
       </c>
       <c r="D613" t="n">
-        <v>64439.76</v>
+        <v>2577590.44</v>
       </c>
     </row>
     <row r="614">
@@ -12497,7 +12497,7 @@
         <v>1</v>
       </c>
       <c r="D614" t="n">
-        <v>41652.14</v>
+        <v>1666085.63</v>
       </c>
     </row>
     <row r="615">
@@ -12515,7 +12515,7 @@
         <v>1</v>
       </c>
       <c r="D615" t="n">
-        <v>115653.74</v>
+        <v>4626149.53</v>
       </c>
     </row>
     <row r="616">
@@ -12533,7 +12533,7 @@
         <v>1</v>
       </c>
       <c r="D616" t="n">
-        <v>152626.96</v>
+        <v>6105078.27</v>
       </c>
     </row>
     <row r="617">
@@ -12551,7 +12551,7 @@
         <v>1</v>
       </c>
       <c r="D617" t="n">
-        <v>72905.16</v>
+        <v>2916206.32</v>
       </c>
     </row>
     <row r="618">
@@ -12569,7 +12569,7 @@
         <v>1</v>
       </c>
       <c r="D618" t="n">
-        <v>23727.91</v>
+        <v>949116.25</v>
       </c>
     </row>
     <row r="619">
@@ -12587,7 +12587,7 @@
         <v>1</v>
       </c>
       <c r="D619" t="n">
-        <v>131679</v>
+        <v>5267159.98</v>
       </c>
     </row>
     <row r="620">
@@ -12605,7 +12605,7 @@
         <v>1</v>
       </c>
       <c r="D620" t="n">
-        <v>58079.68</v>
+        <v>2323187.1</v>
       </c>
     </row>
     <row r="621">
@@ -12623,7 +12623,7 @@
         <v>1</v>
       </c>
       <c r="D621" t="n">
-        <v>61919.7</v>
+        <v>2476787.94</v>
       </c>
     </row>
     <row r="622">
@@ -12641,7 +12641,7 @@
         <v>1</v>
       </c>
       <c r="D622" t="n">
-        <v>181700.65</v>
+        <v>7268025.99</v>
       </c>
     </row>
     <row r="623">
@@ -12659,7 +12659,7 @@
         <v>1</v>
       </c>
       <c r="D623" t="n">
-        <v>154393.09</v>
+        <v>6175723.79</v>
       </c>
     </row>
     <row r="624">
@@ -12677,7 +12677,7 @@
         <v>1</v>
       </c>
       <c r="D624" t="n">
-        <v>85442.28999999999</v>
+        <v>3417691.75</v>
       </c>
     </row>
     <row r="625">
@@ -12695,7 +12695,7 @@
         <v>1</v>
       </c>
       <c r="D625" t="n">
-        <v>213412.06</v>
+        <v>8536482.43</v>
       </c>
     </row>
     <row r="626">
@@ -12713,7 +12713,7 @@
         <v>1</v>
       </c>
       <c r="D626" t="n">
-        <v>207816.87</v>
+        <v>8312674.8</v>
       </c>
     </row>
     <row r="627">
@@ -12731,7 +12731,7 @@
         <v>1</v>
       </c>
       <c r="D627" t="n">
-        <v>118065.48</v>
+        <v>4722619.12</v>
       </c>
     </row>
     <row r="628">
@@ -12749,7 +12749,7 @@
         <v>1</v>
       </c>
       <c r="D628" t="n">
-        <v>31446.09</v>
+        <v>1257843.71</v>
       </c>
     </row>
     <row r="629">
@@ -12767,7 +12767,7 @@
         <v>1</v>
       </c>
       <c r="D629" t="n">
-        <v>199707.32</v>
+        <v>7988292.76</v>
       </c>
     </row>
     <row r="630">
@@ -12785,7 +12785,7 @@
         <v>1</v>
       </c>
       <c r="D630" t="n">
-        <v>198582.83</v>
+        <v>7943313.01</v>
       </c>
     </row>
     <row r="631">
@@ -12803,7 +12803,7 @@
         <v>1</v>
       </c>
       <c r="D631" t="n">
-        <v>79039.07000000001</v>
+        <v>3161562.69</v>
       </c>
     </row>
     <row r="632">
@@ -12821,7 +12821,7 @@
         <v>1</v>
       </c>
       <c r="D632" t="n">
-        <v>55505.13</v>
+        <v>2220205.35</v>
       </c>
     </row>
     <row r="633">
@@ -12839,7 +12839,7 @@
         <v>1</v>
       </c>
       <c r="D633" t="n">
-        <v>23727.91</v>
+        <v>949116.25</v>
       </c>
     </row>
     <row r="634">
@@ -12857,7 +12857,7 @@
         <v>1</v>
       </c>
       <c r="D634" t="n">
-        <v>131679</v>
+        <v>5267159.98</v>
       </c>
     </row>
     <row r="635">
@@ -12875,7 +12875,7 @@
         <v>1</v>
       </c>
       <c r="D635" t="n">
-        <v>208060.34</v>
+        <v>8322413.8</v>
       </c>
     </row>
     <row r="636">
@@ -12893,7 +12893,7 @@
         <v>1</v>
       </c>
       <c r="D636" t="n">
-        <v>176168.7</v>
+        <v>7046748.06</v>
       </c>
     </row>
     <row r="637">
@@ -12911,7 +12911,7 @@
         <v>1</v>
       </c>
       <c r="D637" t="n">
-        <v>181632.38</v>
+        <v>7265295.14</v>
       </c>
     </row>
     <row r="638">
@@ -12929,7 +12929,7 @@
         <v>1</v>
       </c>
       <c r="D638" t="n">
-        <v>54445.66</v>
+        <v>2177826.56</v>
       </c>
     </row>
     <row r="639">
@@ -12947,7 +12947,7 @@
         <v>1</v>
       </c>
       <c r="D639" t="n">
-        <v>103342.21</v>
+        <v>4133688.33</v>
       </c>
     </row>
     <row r="640">
@@ -12983,7 +12983,7 @@
         <v>1</v>
       </c>
       <c r="D641" t="n">
-        <v>44402.94</v>
+        <v>1776117.53</v>
       </c>
     </row>
     <row r="642">
@@ -13001,7 +13001,7 @@
         <v>1</v>
       </c>
       <c r="D642" t="n">
-        <v>115755.58</v>
+        <v>4630223.02</v>
       </c>
     </row>
     <row r="643">
@@ -13019,7 +13019,7 @@
         <v>1</v>
       </c>
       <c r="D643" t="n">
-        <v>211331.42</v>
+        <v>8453256.65</v>
       </c>
     </row>
     <row r="644">
@@ -13037,7 +13037,7 @@
         <v>1</v>
       </c>
       <c r="D644" t="n">
-        <v>55505.13</v>
+        <v>2220205.35</v>
       </c>
     </row>
     <row r="645">
@@ -13055,7 +13055,7 @@
         <v>1</v>
       </c>
       <c r="D645" t="n">
-        <v>131679</v>
+        <v>5267159.98</v>
       </c>
     </row>
     <row r="646">
@@ -13073,7 +13073,7 @@
         <v>1</v>
       </c>
       <c r="D646" t="n">
-        <v>21560.32</v>
+        <v>862412.7</v>
       </c>
     </row>
     <row r="647">
@@ -13091,7 +13091,7 @@
         <v>1</v>
       </c>
       <c r="D647" t="n">
-        <v>112748.05</v>
+        <v>4509921.91</v>
       </c>
     </row>
     <row r="648">
@@ -13109,7 +13109,7 @@
         <v>1</v>
       </c>
       <c r="D648" t="n">
-        <v>75866.25999999999</v>
+        <v>3034650.42</v>
       </c>
     </row>
     <row r="649">
@@ -13127,7 +13127,7 @@
         <v>1</v>
       </c>
       <c r="D649" t="n">
-        <v>79591.92999999999</v>
+        <v>3183677.28</v>
       </c>
     </row>
     <row r="650">
@@ -13145,7 +13145,7 @@
         <v>1</v>
       </c>
       <c r="D650" t="n">
-        <v>141105.65</v>
+        <v>5644226.11</v>
       </c>
     </row>
     <row r="651">
@@ -13163,7 +13163,7 @@
         <v>1</v>
       </c>
       <c r="D651" t="n">
-        <v>110431.21</v>
+        <v>4417248.27</v>
       </c>
     </row>
     <row r="652">
@@ -13181,7 +13181,7 @@
         <v>1</v>
       </c>
       <c r="D652" t="n">
-        <v>54859.14</v>
+        <v>2194365.57</v>
       </c>
     </row>
     <row r="653">
@@ -13199,7 +13199,7 @@
         <v>1</v>
       </c>
       <c r="D653" t="n">
-        <v>169025.73</v>
+        <v>6761029.07</v>
       </c>
     </row>
     <row r="654">
@@ -13217,7 +13217,7 @@
         <v>1</v>
       </c>
       <c r="D654" t="n">
-        <v>164819.06</v>
+        <v>6592762.33</v>
       </c>
     </row>
     <row r="655">
@@ -13235,7 +13235,7 @@
         <v>1</v>
       </c>
       <c r="D655" t="n">
-        <v>103999.13</v>
+        <v>4159965.23</v>
       </c>
     </row>
     <row r="656">
@@ -13253,7 +13253,7 @@
         <v>1</v>
       </c>
       <c r="D656" t="n">
-        <v>44874.13</v>
+        <v>1794965.27</v>
       </c>
     </row>
     <row r="657">
@@ -13271,7 +13271,7 @@
         <v>1</v>
       </c>
       <c r="D657" t="n">
-        <v>156537.63</v>
+        <v>6261505.22</v>
       </c>
     </row>
     <row r="658">
@@ -13289,7 +13289,7 @@
         <v>1</v>
       </c>
       <c r="D658" t="n">
-        <v>157028.29</v>
+        <v>6281131.74</v>
       </c>
     </row>
     <row r="659">
@@ -13307,7 +13307,7 @@
         <v>1</v>
       </c>
       <c r="D659" t="n">
-        <v>82998.97</v>
+        <v>3319958.97</v>
       </c>
     </row>
     <row r="660">
@@ -13325,7 +13325,7 @@
         <v>1</v>
       </c>
       <c r="D660" t="n">
-        <v>88383.49000000001</v>
+        <v>3535339.47</v>
       </c>
     </row>
     <row r="661">
@@ -13343,7 +13343,7 @@
         <v>1</v>
       </c>
       <c r="D661" t="n">
-        <v>21560.32</v>
+        <v>862412.7</v>
       </c>
     </row>
     <row r="662">
@@ -13361,7 +13361,7 @@
         <v>1</v>
       </c>
       <c r="D662" t="n">
-        <v>112748.05</v>
+        <v>4509921.91</v>
       </c>
     </row>
     <row r="663">
@@ -13379,7 +13379,7 @@
         <v>1</v>
       </c>
       <c r="D663" t="n">
-        <v>166237.95</v>
+        <v>6649518.01</v>
       </c>
     </row>
     <row r="664">
@@ -13397,7 +13397,7 @@
         <v>1</v>
       </c>
       <c r="D664" t="n">
-        <v>131846.27</v>
+        <v>5273850.98</v>
       </c>
     </row>
     <row r="665">
@@ -13415,7 +13415,7 @@
         <v>1</v>
       </c>
       <c r="D665" t="n">
-        <v>146776.62</v>
+        <v>5871064.71</v>
       </c>
     </row>
     <row r="666">
@@ -13433,7 +13433,7 @@
         <v>1</v>
       </c>
       <c r="D666" t="n">
-        <v>66616.98</v>
+        <v>2664679.15</v>
       </c>
     </row>
     <row r="667">
@@ -13451,7 +13451,7 @@
         <v>1</v>
       </c>
       <c r="D667" t="n">
-        <v>64439.76</v>
+        <v>2577590.44</v>
       </c>
     </row>
     <row r="668">
@@ -13469,7 +13469,7 @@
         <v>1</v>
       </c>
       <c r="D668" t="n">
-        <v>44402.94</v>
+        <v>1776117.53</v>
       </c>
     </row>
     <row r="669">
@@ -13505,7 +13505,7 @@
         <v>1</v>
       </c>
       <c r="D670" t="n">
-        <v>71369.05</v>
+        <v>2854762.14</v>
       </c>
     </row>
     <row r="671">
@@ -13523,7 +13523,7 @@
         <v>1</v>
       </c>
       <c r="D671" t="n">
-        <v>167242.19</v>
+        <v>6689687.69</v>
       </c>
     </row>
     <row r="672">
@@ -13541,7 +13541,7 @@
         <v>1</v>
       </c>
       <c r="D672" t="n">
-        <v>88383.49000000001</v>
+        <v>3535339.47</v>
       </c>
     </row>
     <row r="673">
@@ -13559,7 +13559,7 @@
         <v>1</v>
       </c>
       <c r="D673" t="n">
-        <v>112748.05</v>
+        <v>4509921.91</v>
       </c>
     </row>
     <row r="674">
@@ -13577,7 +13577,7 @@
         <v>1</v>
       </c>
       <c r="D674" t="n">
-        <v>92443.45</v>
+        <v>3697737.95</v>
       </c>
     </row>
     <row r="675">
@@ -13595,7 +13595,7 @@
         <v>1</v>
       </c>
       <c r="D675" t="n">
-        <v>114004.36</v>
+        <v>4560174.34</v>
       </c>
     </row>
     <row r="676">
@@ -13613,7 +13613,7 @@
         <v>1</v>
       </c>
       <c r="D676" t="n">
-        <v>132497.27</v>
+        <v>5299890.95</v>
       </c>
     </row>
     <row r="677">
@@ -13631,7 +13631,7 @@
         <v>1</v>
       </c>
       <c r="D677" t="n">
-        <v>135300.37</v>
+        <v>5412014.93</v>
       </c>
     </row>
     <row r="678">
@@ -13649,7 +13649,7 @@
         <v>1</v>
       </c>
       <c r="D678" t="n">
-        <v>82459.14999999999</v>
+        <v>3298365.92</v>
       </c>
     </row>
     <row r="679">
@@ -13667,7 +13667,7 @@
         <v>1</v>
       </c>
       <c r="D679" t="n">
-        <v>40786.86</v>
+        <v>1631474.54</v>
       </c>
     </row>
     <row r="680">
@@ -13685,7 +13685,7 @@
         <v>1</v>
       </c>
       <c r="D680" t="n">
-        <v>64327.8</v>
+        <v>2573111.99</v>
       </c>
     </row>
     <row r="681">
@@ -13703,7 +13703,7 @@
         <v>1</v>
       </c>
       <c r="D681" t="n">
-        <v>97657.61</v>
+        <v>3906304.6</v>
       </c>
     </row>
     <row r="682">
@@ -13721,7 +13721,7 @@
         <v>1</v>
       </c>
       <c r="D682" t="n">
-        <v>99575.39</v>
+        <v>3983015.42</v>
       </c>
     </row>
     <row r="683">
@@ -13739,7 +13739,7 @@
         <v>1</v>
       </c>
       <c r="D683" t="n">
-        <v>116377.79</v>
+        <v>4655111.64</v>
       </c>
     </row>
     <row r="684">
@@ -13757,7 +13757,7 @@
         <v>1</v>
       </c>
       <c r="D684" t="n">
-        <v>108507.6</v>
+        <v>4340304.1</v>
       </c>
     </row>
     <row r="685">
@@ -13775,7 +13775,7 @@
         <v>1</v>
       </c>
       <c r="D685" t="n">
-        <v>88632.33</v>
+        <v>3545293.25</v>
       </c>
     </row>
     <row r="686">
@@ -13793,7 +13793,7 @@
         <v>1</v>
       </c>
       <c r="D686" t="n">
-        <v>94193.16</v>
+        <v>3767726.51</v>
       </c>
     </row>
     <row r="687">
@@ -13811,7 +13811,7 @@
         <v>1</v>
       </c>
       <c r="D687" t="n">
-        <v>125672.94</v>
+        <v>5026917.4</v>
       </c>
     </row>
     <row r="688">
@@ -13829,7 +13829,7 @@
         <v>1</v>
       </c>
       <c r="D688" t="n">
-        <v>154589.7</v>
+        <v>6183587.84</v>
       </c>
     </row>
     <row r="689">
@@ -13847,7 +13847,7 @@
         <v>1</v>
       </c>
       <c r="D689" t="n">
-        <v>92443.45</v>
+        <v>3697737.95</v>
       </c>
     </row>
     <row r="690">
@@ -13865,7 +13865,7 @@
         <v>1</v>
       </c>
       <c r="D690" t="n">
-        <v>114004.36</v>
+        <v>4560174.34</v>
       </c>
     </row>
     <row r="691">
@@ -13883,7 +13883,7 @@
         <v>1</v>
       </c>
       <c r="D691" t="n">
-        <v>102175.37</v>
+        <v>4087014.96</v>
       </c>
     </row>
     <row r="692">
@@ -13901,7 +13901,7 @@
         <v>1</v>
       </c>
       <c r="D692" t="n">
-        <v>60572.32</v>
+        <v>2422892.96</v>
       </c>
     </row>
     <row r="693">
@@ -13919,7 +13919,7 @@
         <v>1</v>
       </c>
       <c r="D693" t="n">
-        <v>104468.15</v>
+        <v>4178725.91</v>
       </c>
     </row>
     <row r="694">
@@ -13937,7 +13937,7 @@
         <v>1</v>
       </c>
       <c r="D694" t="n">
-        <v>121639.96</v>
+        <v>4865598.23</v>
       </c>
     </row>
     <row r="695">
@@ -13955,7 +13955,7 @@
         <v>1</v>
       </c>
       <c r="D695" t="n">
-        <v>41652.14</v>
+        <v>1666085.63</v>
       </c>
     </row>
     <row r="696">
@@ -13973,7 +13973,7 @@
         <v>1</v>
       </c>
       <c r="D696" t="n">
-        <v>115755.58</v>
+        <v>4630223.02</v>
       </c>
     </row>
     <row r="697">
@@ -13991,7 +13991,7 @@
         <v>1</v>
       </c>
       <c r="D697" t="n">
-        <v>71369.05</v>
+        <v>2854762.14</v>
       </c>
     </row>
     <row r="698">
@@ -14027,7 +14027,7 @@
         <v>1</v>
       </c>
       <c r="D699" t="n">
-        <v>96481.78999999999</v>
+        <v>3859271.55</v>
       </c>
     </row>
     <row r="700">
@@ -14045,7 +14045,7 @@
         <v>1</v>
       </c>
       <c r="D700" t="n">
-        <v>154589.7</v>
+        <v>6183587.84</v>
       </c>
     </row>
     <row r="701">
@@ -14063,7 +14063,7 @@
         <v>1</v>
       </c>
       <c r="D701" t="n">
-        <v>114004.36</v>
+        <v>4560174.34</v>
       </c>
     </row>
     <row r="702">
@@ -14081,7 +14081,7 @@
         <v>1</v>
       </c>
       <c r="D702" t="n">
-        <v>187695.24</v>
+        <v>7507809.67</v>
       </c>
     </row>
     <row r="703">
@@ -14099,7 +14099,7 @@
         <v>1</v>
       </c>
       <c r="D703" t="n">
-        <v>160928.55</v>
+        <v>6437142.2</v>
       </c>
     </row>
     <row r="704">
@@ -14117,7 +14117,7 @@
         <v>1</v>
       </c>
       <c r="D704" t="n">
-        <v>217688.09</v>
+        <v>8707523.75</v>
       </c>
     </row>
     <row r="705">
@@ -14135,7 +14135,7 @@
         <v>1</v>
       </c>
       <c r="D705" t="n">
-        <v>219639.44</v>
+        <v>8785577.609999999</v>
       </c>
     </row>
     <row r="706">
@@ -14153,7 +14153,7 @@
         <v>1</v>
       </c>
       <c r="D706" t="n">
-        <v>58567.97</v>
+        <v>2342718.81</v>
       </c>
     </row>
     <row r="707">
@@ -14171,7 +14171,7 @@
         <v>1</v>
       </c>
       <c r="D707" t="n">
-        <v>56989.67</v>
+        <v>2279586.61</v>
       </c>
     </row>
     <row r="708">
@@ -14189,7 +14189,7 @@
         <v>1</v>
       </c>
       <c r="D708" t="n">
-        <v>142007.86</v>
+        <v>5680314.33</v>
       </c>
     </row>
     <row r="709">
@@ -14207,7 +14207,7 @@
         <v>1</v>
       </c>
       <c r="D709" t="n">
-        <v>17390.83</v>
+        <v>695633.1899999999</v>
       </c>
     </row>
     <row r="710">
@@ -14225,7 +14225,7 @@
         <v>1</v>
       </c>
       <c r="D710" t="n">
-        <v>68820.53999999999</v>
+        <v>2752821.41</v>
       </c>
     </row>
     <row r="711">
@@ -14243,7 +14243,7 @@
         <v>1</v>
       </c>
       <c r="D711" t="n">
-        <v>172806.78</v>
+        <v>6912271.13</v>
       </c>
     </row>
     <row r="712">
@@ -14261,7 +14261,7 @@
         <v>1</v>
       </c>
       <c r="D712" t="n">
-        <v>199617.36</v>
+        <v>7984694.59</v>
       </c>
     </row>
     <row r="713">
@@ -14279,7 +14279,7 @@
         <v>1</v>
       </c>
       <c r="D713" t="n">
-        <v>24095.36</v>
+        <v>963814.39</v>
       </c>
     </row>
     <row r="714">
@@ -14297,7 +14297,7 @@
         <v>1</v>
       </c>
       <c r="D714" t="n">
-        <v>45273.67</v>
+        <v>1810946.8</v>
       </c>
     </row>
     <row r="715">
@@ -14315,7 +14315,7 @@
         <v>1</v>
       </c>
       <c r="D715" t="n">
-        <v>202827.23</v>
+        <v>8113089.35</v>
       </c>
     </row>
     <row r="716">
@@ -14333,7 +14333,7 @@
         <v>1</v>
       </c>
       <c r="D716" t="n">
-        <v>250697.74</v>
+        <v>10027909.72</v>
       </c>
     </row>
     <row r="717">
@@ -14351,7 +14351,7 @@
         <v>1</v>
       </c>
       <c r="D717" t="n">
-        <v>187695.24</v>
+        <v>7507809.67</v>
       </c>
     </row>
     <row r="718">
@@ -14369,7 +14369,7 @@
         <v>1</v>
       </c>
       <c r="D718" t="n">
-        <v>160928.55</v>
+        <v>6437142.2</v>
       </c>
     </row>
     <row r="719">
@@ -14387,7 +14387,7 @@
         <v>1</v>
       </c>
       <c r="D719" t="n">
-        <v>41743.8</v>
+        <v>1669752.12</v>
       </c>
     </row>
     <row r="720">
@@ -14405,7 +14405,7 @@
         <v>1</v>
       </c>
       <c r="D720" t="n">
-        <v>36652.36</v>
+        <v>1466094.41</v>
       </c>
     </row>
     <row r="721">
@@ -14423,7 +14423,7 @@
         <v>1</v>
       </c>
       <c r="D721" t="n">
-        <v>98144.33</v>
+        <v>3925773.14</v>
       </c>
     </row>
     <row r="722">
@@ -14441,7 +14441,7 @@
         <v>1</v>
       </c>
       <c r="D722" t="n">
-        <v>206991.06</v>
+        <v>8279642.41</v>
       </c>
     </row>
     <row r="723">
@@ -14459,7 +14459,7 @@
         <v>1</v>
       </c>
       <c r="D723" t="n">
-        <v>115653.74</v>
+        <v>4626149.53</v>
       </c>
     </row>
     <row r="724">
@@ -14477,7 +14477,7 @@
         <v>1</v>
       </c>
       <c r="D724" t="n">
-        <v>211331.42</v>
+        <v>8453256.65</v>
       </c>
     </row>
     <row r="725">
@@ -14495,7 +14495,7 @@
         <v>1</v>
       </c>
       <c r="D725" t="n">
-        <v>167242.19</v>
+        <v>6689687.69</v>
       </c>
     </row>
     <row r="726">
@@ -14513,7 +14513,7 @@
         <v>1</v>
       </c>
       <c r="D726" t="n">
-        <v>96481.78999999999</v>
+        <v>3859271.55</v>
       </c>
     </row>
     <row r="727">
@@ -14549,7 +14549,7 @@
         <v>1</v>
       </c>
       <c r="D728" t="n">
-        <v>250697.74</v>
+        <v>10027909.72</v>
       </c>
     </row>
     <row r="729">
@@ -14567,7 +14567,7 @@
         <v>1</v>
       </c>
       <c r="D729" t="n">
-        <v>160928.55</v>
+        <v>6437142.2</v>
       </c>
     </row>
     <row r="730">
@@ -14585,7 +14585,7 @@
         <v>1</v>
       </c>
       <c r="D730" t="n">
-        <v>74172.44</v>
+        <v>2966897.67</v>
       </c>
     </row>
     <row r="731">
@@ -14603,7 +14603,7 @@
         <v>1</v>
       </c>
       <c r="D731" t="n">
-        <v>187183.59</v>
+        <v>7487343.55</v>
       </c>
     </row>
     <row r="732">
@@ -14621,7 +14621,7 @@
         <v>1</v>
       </c>
       <c r="D732" t="n">
-        <v>107198.52</v>
+        <v>4287940.92</v>
       </c>
     </row>
     <row r="733">
@@ -14639,7 +14639,7 @@
         <v>1</v>
       </c>
       <c r="D733" t="n">
-        <v>110513.1</v>
+        <v>4420524.16</v>
       </c>
     </row>
     <row r="734">
@@ -14657,7 +14657,7 @@
         <v>1</v>
       </c>
       <c r="D734" t="n">
-        <v>229353.88</v>
+        <v>9174155.050000001</v>
       </c>
     </row>
     <row r="735">
@@ -14675,7 +14675,7 @@
         <v>1</v>
       </c>
       <c r="D735" t="n">
-        <v>195271.39</v>
+        <v>7810855.59</v>
       </c>
     </row>
     <row r="736">
@@ -14693,7 +14693,7 @@
         <v>1</v>
       </c>
       <c r="D736" t="n">
-        <v>138569.09</v>
+        <v>5542763.59</v>
       </c>
     </row>
     <row r="737">
@@ -14711,7 +14711,7 @@
         <v>1</v>
       </c>
       <c r="D737" t="n">
-        <v>249713.09</v>
+        <v>9988523.77</v>
       </c>
     </row>
     <row r="738">
@@ -14729,7 +14729,7 @@
         <v>1</v>
       </c>
       <c r="D738" t="n">
-        <v>233679.09</v>
+        <v>9347163.43</v>
       </c>
     </row>
     <row r="739">
@@ -14747,7 +14747,7 @@
         <v>1</v>
       </c>
       <c r="D739" t="n">
-        <v>173428.24</v>
+        <v>6937129.63</v>
       </c>
     </row>
     <row r="740">
@@ -14765,7 +14765,7 @@
         <v>1</v>
       </c>
       <c r="D740" t="n">
-        <v>86333.28999999999</v>
+        <v>3453331.42</v>
       </c>
     </row>
     <row r="741">
@@ -14783,7 +14783,7 @@
         <v>1</v>
       </c>
       <c r="D741" t="n">
-        <v>242709.29</v>
+        <v>9708371.74</v>
       </c>
     </row>
     <row r="742">
@@ -14801,7 +14801,7 @@
         <v>1</v>
       </c>
       <c r="D742" t="n">
-        <v>244854.19</v>
+        <v>9794167.73</v>
       </c>
     </row>
     <row r="743">
@@ -14819,7 +14819,7 @@
         <v>1</v>
       </c>
       <c r="D743" t="n">
-        <v>131897.19</v>
+        <v>5275887.68</v>
       </c>
     </row>
     <row r="744">
@@ -14855,7 +14855,7 @@
         <v>1</v>
       </c>
       <c r="D745" t="n">
-        <v>74172.44</v>
+        <v>2966897.67</v>
       </c>
     </row>
     <row r="746">
@@ -14873,7 +14873,7 @@
         <v>1</v>
       </c>
       <c r="D746" t="n">
-        <v>187183.59</v>
+        <v>7487343.55</v>
       </c>
     </row>
     <row r="747">
@@ -14891,7 +14891,7 @@
         <v>1</v>
       </c>
       <c r="D747" t="n">
-        <v>253859.57</v>
+        <v>10154382.78</v>
       </c>
     </row>
     <row r="748">
@@ -14909,7 +14909,7 @@
         <v>1</v>
       </c>
       <c r="D748" t="n">
-        <v>214219.29</v>
+        <v>8568771.73</v>
       </c>
     </row>
     <row r="749">
@@ -14927,7 +14927,7 @@
         <v>1</v>
       </c>
       <c r="D749" t="n">
-        <v>233950.53</v>
+        <v>9358021.16</v>
       </c>
     </row>
     <row r="750">
@@ -14945,7 +14945,7 @@
         <v>1</v>
       </c>
       <c r="D750" t="n">
-        <v>106653.4</v>
+        <v>4266135.95</v>
       </c>
     </row>
     <row r="751">
@@ -14963,7 +14963,7 @@
         <v>1</v>
       </c>
       <c r="D751" t="n">
-        <v>152626.96</v>
+        <v>6105078.27</v>
       </c>
     </row>
     <row r="752">
@@ -14981,7 +14981,7 @@
         <v>1</v>
       </c>
       <c r="D752" t="n">
-        <v>55505.13</v>
+        <v>2220205.35</v>
       </c>
     </row>
     <row r="753">
@@ -14999,7 +14999,7 @@
         <v>1</v>
       </c>
       <c r="D753" t="n">
-        <v>88383.49000000001</v>
+        <v>3535339.47</v>
       </c>
     </row>
     <row r="754">
@@ -15017,7 +15017,7 @@
         <v>1</v>
       </c>
       <c r="D754" t="n">
-        <v>154589.7</v>
+        <v>6183587.84</v>
       </c>
     </row>
     <row r="755">
@@ -15035,7 +15035,7 @@
         <v>1</v>
       </c>
       <c r="D755" t="n">
-        <v>250697.74</v>
+        <v>10027909.72</v>
       </c>
     </row>
     <row r="756">
@@ -15071,7 +15071,7 @@
         <v>1</v>
       </c>
       <c r="D757" t="n">
-        <v>187183.59</v>
+        <v>7487343.55</v>
       </c>
     </row>
     <row r="758">
@@ -15089,7 +15089,7 @@
         <v>1</v>
       </c>
       <c r="D758" t="n">
-        <v>116066.53</v>
+        <v>4642661</v>
       </c>
     </row>
     <row r="759">
@@ -15125,7 +15125,7 @@
         <v>1</v>
       </c>
       <c r="D760" t="n">
-        <v>93864.49000000001</v>
+        <v>3754579.78</v>
       </c>
     </row>
     <row r="761">
@@ -15143,7 +15143,7 @@
         <v>1</v>
       </c>
       <c r="D761" t="n">
-        <v>93041.28</v>
+        <v>3721651.02</v>
       </c>
     </row>
     <row r="762">
@@ -15161,7 +15161,7 @@
         <v>1</v>
       </c>
       <c r="D762" t="n">
-        <v>105038.14</v>
+        <v>4201525.62</v>
       </c>
     </row>
     <row r="763">
@@ -15179,7 +15179,7 @@
         <v>1</v>
       </c>
       <c r="D763" t="n">
-        <v>119975.3</v>
+        <v>4799011.88</v>
       </c>
     </row>
     <row r="764">
@@ -15197,7 +15197,7 @@
         <v>1</v>
       </c>
       <c r="D764" t="n">
-        <v>60581.89</v>
+        <v>2423275.48</v>
       </c>
     </row>
     <row r="765">
@@ -15215,7 +15215,7 @@
         <v>1</v>
       </c>
       <c r="D765" t="n">
-        <v>173275.19</v>
+        <v>6931007.68</v>
       </c>
     </row>
     <row r="766">
@@ -15233,7 +15233,7 @@
         <v>1</v>
       </c>
       <c r="D766" t="n">
-        <v>201060.5</v>
+        <v>8042419.81</v>
       </c>
     </row>
     <row r="767">
@@ -15251,7 +15251,7 @@
         <v>1</v>
       </c>
       <c r="D767" t="n">
-        <v>17805.5</v>
+        <v>712219.83</v>
       </c>
     </row>
     <row r="768">
@@ -15269,7 +15269,7 @@
         <v>1</v>
       </c>
       <c r="D768" t="n">
-        <v>101545.25</v>
+        <v>4061810.17</v>
       </c>
     </row>
     <row r="769">
@@ -15287,7 +15287,7 @@
         <v>1</v>
       </c>
       <c r="D769" t="n">
-        <v>138482.99</v>
+        <v>5539319.77</v>
       </c>
     </row>
     <row r="770">
@@ -15305,7 +15305,7 @@
         <v>1</v>
       </c>
       <c r="D770" t="n">
-        <v>123355.82</v>
+        <v>4934232.95</v>
       </c>
     </row>
     <row r="771">
@@ -15323,7 +15323,7 @@
         <v>1</v>
       </c>
       <c r="D771" t="n">
-        <v>66978.81</v>
+        <v>2679152.55</v>
       </c>
     </row>
     <row r="772">
@@ -15341,7 +15341,7 @@
         <v>1</v>
       </c>
       <c r="D772" t="n">
-        <v>187183.59</v>
+        <v>7487343.55</v>
       </c>
     </row>
     <row r="773">
@@ -15359,7 +15359,7 @@
         <v>1</v>
       </c>
       <c r="D773" t="n">
-        <v>116066.53</v>
+        <v>4642661</v>
       </c>
     </row>
     <row r="774">
@@ -15395,7 +15395,7 @@
         <v>1</v>
       </c>
       <c r="D775" t="n">
-        <v>132457.84</v>
+        <v>5298313.43</v>
       </c>
     </row>
     <row r="776">
@@ -15413,7 +15413,7 @@
         <v>1</v>
       </c>
       <c r="D776" t="n">
-        <v>142196.42</v>
+        <v>5687856.74</v>
       </c>
     </row>
     <row r="777">
@@ -15431,7 +15431,7 @@
         <v>1</v>
       </c>
       <c r="D777" t="n">
-        <v>77171.63</v>
+        <v>3086865.4</v>
       </c>
     </row>
     <row r="778">
@@ -15449,7 +15449,7 @@
         <v>1</v>
       </c>
       <c r="D778" t="n">
-        <v>87717.31</v>
+        <v>3508692.52</v>
       </c>
     </row>
     <row r="779">
@@ -15467,7 +15467,7 @@
         <v>1</v>
       </c>
       <c r="D779" t="n">
-        <v>72905.16</v>
+        <v>2916206.32</v>
       </c>
     </row>
     <row r="780">
@@ -15485,7 +15485,7 @@
         <v>1</v>
       </c>
       <c r="D780" t="n">
-        <v>131679</v>
+        <v>5267159.98</v>
       </c>
     </row>
     <row r="781">
@@ -15503,7 +15503,7 @@
         <v>1</v>
       </c>
       <c r="D781" t="n">
-        <v>112748.05</v>
+        <v>4509921.91</v>
       </c>
     </row>
     <row r="782">
@@ -15521,7 +15521,7 @@
         <v>1</v>
       </c>
       <c r="D782" t="n">
-        <v>114004.36</v>
+        <v>4560174.34</v>
       </c>
     </row>
     <row r="783">
@@ -15539,7 +15539,7 @@
         <v>1</v>
       </c>
       <c r="D783" t="n">
-        <v>160928.55</v>
+        <v>6437142.2</v>
       </c>
     </row>
     <row r="784">
@@ -15557,7 +15557,7 @@
         <v>1</v>
       </c>
       <c r="D784" t="n">
-        <v>187183.59</v>
+        <v>7487343.55</v>
       </c>
     </row>
     <row r="785">
